--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9154B-9F77-43D6-B3FC-6746EB16BAC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4B849-F4FE-4E6C-9D99-D29D5D8FBDF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="样例1" sheetId="1" r:id="rId1"/>
-    <sheet name="station152" sheetId="6" r:id="rId2"/>
-    <sheet name="样例2" sheetId="2" r:id="rId3"/>
-    <sheet name="样例3" sheetId="3" r:id="rId4"/>
-    <sheet name="样例4" sheetId="4" r:id="rId5"/>
-    <sheet name="样例5" sheetId="5" r:id="rId6"/>
-    <sheet name="样例6" sheetId="7" r:id="rId7"/>
+    <sheet name="T1" sheetId="11" r:id="rId2"/>
+    <sheet name="T2" sheetId="12" r:id="rId3"/>
+    <sheet name="T3" sheetId="13" r:id="rId4"/>
+    <sheet name="T4" sheetId="14" r:id="rId5"/>
+    <sheet name="T5" sheetId="15" r:id="rId6"/>
+    <sheet name="T6" sheetId="16" r:id="rId7"/>
+    <sheet name="样例2" sheetId="2" r:id="rId8"/>
+    <sheet name="样例3" sheetId="3" r:id="rId9"/>
+    <sheet name="样例4" sheetId="4" r:id="rId10"/>
+    <sheet name="样例5" sheetId="5" r:id="rId11"/>
+    <sheet name="样例6" sheetId="7" r:id="rId12"/>
+    <sheet name="station152" sheetId="6" r:id="rId13"/>
+    <sheet name="缺失152-86" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">样例2!$D$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">样例3!$D$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">样例4!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">样例5!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">样例2!$D$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">样例3!$D$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例4!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例5!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="324">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1341,7 +1348,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1794,12 +1801,1428 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2">
+        <v>114.5261</v>
+      </c>
+      <c r="E2">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3">
+        <v>114.5331</v>
+      </c>
+      <c r="E3">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4">
+        <v>114.4854</v>
+      </c>
+      <c r="E4">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5">
+        <v>116.988</v>
+      </c>
+      <c r="E5">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6">
+        <v>116.93</v>
+      </c>
+      <c r="E6">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7">
+        <v>117.114</v>
+      </c>
+      <c r="E7">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8">
+        <v>116.989</v>
+      </c>
+      <c r="E8">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9">
+        <v>117.0684</v>
+      </c>
+      <c r="E9">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>116.943</v>
+      </c>
+      <c r="E10">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E11">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E12">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E13">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <v>120.3905</v>
+      </c>
+      <c r="E14">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15">
+        <v>120.3471</v>
+      </c>
+      <c r="E15">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16">
+        <v>120.4134</v>
+      </c>
+      <c r="E16">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17">
+        <v>120.3664</v>
+      </c>
+      <c r="E17">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18">
+        <v>120.2992</v>
+      </c>
+      <c r="E18">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E19">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20">
+        <v>120.1964</v>
+      </c>
+      <c r="E20">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E21">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>117.685</v>
+      </c>
+      <c r="E22">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>117.6789</v>
+      </c>
+      <c r="E23">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>117.715</v>
+      </c>
+      <c r="E24">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E25">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E26">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E100" xr:uid="{035B6B4E-D8F7-4617-84CF-749466A31CCB}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8FB034-7678-4AEB-9725-29640D0371F2}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>118.2764</v>
+      </c>
+      <c r="E2">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>118.4023</v>
+      </c>
+      <c r="E3">
+        <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4">
+        <v>116.3061</v>
+      </c>
+      <c r="E4">
+        <v>37.4664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E5">
+        <v>37.450400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6">
+        <v>116.3189</v>
+      </c>
+      <c r="E6">
+        <v>37.448900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E7">
+        <v>36.437199999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E8">
+        <v>36.456800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E9">
+        <v>36.479599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E10">
+        <v>37.380299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11">
+        <v>118.0018</v>
+      </c>
+      <c r="E11">
+        <v>37.361699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12">
+        <v>117.9776</v>
+      </c>
+      <c r="E12">
+        <v>37.393000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E13">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>118.0448</v>
+      </c>
+      <c r="E14">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>117.8477</v>
+      </c>
+      <c r="E15">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E16">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>118.3092</v>
+      </c>
+      <c r="E17">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E18">
+        <v>36.804099999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>117.5564</v>
+      </c>
+      <c r="E19">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>117.2852</v>
+      </c>
+      <c r="E20">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>117.5852</v>
+      </c>
+      <c r="E21">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>117.732</v>
+      </c>
+      <c r="E22">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E23">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24">
+        <v>121.2514</v>
+      </c>
+      <c r="E24">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25">
+        <v>121.3719</v>
+      </c>
+      <c r="E25">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26">
+        <v>121.3181</v>
+      </c>
+      <c r="E26">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00556B5-25B7-43BE-8B64-F9D663C7D41D}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2">
+        <v>121.4478</v>
+      </c>
+      <c r="E2">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3">
+        <v>121.2611</v>
+      </c>
+      <c r="E3">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E4">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>119.12</v>
+      </c>
+      <c r="E5">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>119.0919</v>
+      </c>
+      <c r="E6">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>119.1425</v>
+      </c>
+      <c r="E7">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>119.1614</v>
+      </c>
+      <c r="E8">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>119.1939</v>
+      </c>
+      <c r="E9">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10">
+        <v>116.6305</v>
+      </c>
+      <c r="E10">
+        <v>35.427999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11">
+        <v>116.5856</v>
+      </c>
+      <c r="E11">
+        <v>35.414400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E12">
+        <v>35.4039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E13">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14">
+        <v>117.0881</v>
+      </c>
+      <c r="E14">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E15">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>119.4641</v>
+      </c>
+      <c r="E16">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>119.5198</v>
+      </c>
+      <c r="E17">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>119.54</v>
+      </c>
+      <c r="E18">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>122.1206</v>
+      </c>
+      <c r="E19">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>122.0508</v>
+      </c>
+      <c r="E20">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>122.1067</v>
+      </c>
+      <c r="E21">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E22">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E23">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24">
+        <v>118.5857</v>
+      </c>
+      <c r="E24">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25">
+        <v>118.8192</v>
+      </c>
+      <c r="E25">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26">
+        <v>115.42277</v>
+      </c>
+      <c r="E26">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27">
+        <v>115.474722</v>
+      </c>
+      <c r="E27">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28">
+        <v>115.455</v>
+      </c>
+      <c r="E28">
+        <v>35.270000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:E153"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4415,7 +5838,1531 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E71432-076E-4B36-BE65-904D2F994836}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E2">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3">
+        <v>115.5223</v>
+      </c>
+      <c r="E3">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4">
+        <v>115.4713</v>
+      </c>
+      <c r="E4">
+        <v>38.910800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E5">
+        <v>38.8416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E6">
+        <v>38.875599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7">
+        <v>115.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.870699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E8">
+        <v>37.380299999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9">
+        <v>118.0018</v>
+      </c>
+      <c r="E9">
+        <v>37.361699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10">
+        <v>117.9776</v>
+      </c>
+      <c r="E10">
+        <v>37.393000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E11">
+        <v>38.322800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12">
+        <v>116.3061</v>
+      </c>
+      <c r="E12">
+        <v>37.4664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E13">
+        <v>37.450400000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14">
+        <v>116.3189</v>
+      </c>
+      <c r="E14">
+        <v>37.448900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E15">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E16">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17">
+        <v>118.5857</v>
+      </c>
+      <c r="E17">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18">
+        <v>118.8192</v>
+      </c>
+      <c r="E18">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19">
+        <v>114.5129</v>
+      </c>
+      <c r="E19">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E20">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21">
+        <v>114.5035</v>
+      </c>
+      <c r="E21">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>114.4965</v>
+      </c>
+      <c r="E22">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23">
+        <v>115.6951</v>
+      </c>
+      <c r="E23">
+        <v>37.7575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24">
+        <v>115.6426</v>
+      </c>
+      <c r="E24">
+        <v>37.737900000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25">
+        <v>115.6906</v>
+      </c>
+      <c r="E25">
+        <v>37.738999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26">
+        <v>116.6305</v>
+      </c>
+      <c r="E26">
+        <v>35.427999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27">
+        <v>116.5856</v>
+      </c>
+      <c r="E27">
+        <v>35.414400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E28">
+        <v>35.4039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E29">
+        <v>39.517800000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E30">
+        <v>39.5747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31">
+        <v>116.715</v>
+      </c>
+      <c r="E31">
+        <v>39.557099999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E32">
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E33">
+        <v>36.437199999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E34">
+        <v>36.456800000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E35">
+        <v>36.479599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E36">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37">
+        <v>119.7624</v>
+      </c>
+      <c r="E37">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38">
+        <v>119.6023</v>
+      </c>
+      <c r="E38">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39">
+        <v>119.607</v>
+      </c>
+      <c r="E39">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40">
+        <v>119.5369</v>
+      </c>
+      <c r="E40">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41">
+        <v>114.3541</v>
+      </c>
+      <c r="E41">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E42">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43">
+        <v>117.0881</v>
+      </c>
+      <c r="E43">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E44">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45">
+        <v>118.1662</v>
+      </c>
+      <c r="E45">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E46">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47">
+        <v>118.1853</v>
+      </c>
+      <c r="E47">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E48">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E49">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E50">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>122.0508</v>
+      </c>
+      <c r="E51">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>122.1067</v>
+      </c>
+      <c r="E52">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53">
+        <v>121.2514</v>
+      </c>
+      <c r="E53">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54">
+        <v>121.3719</v>
+      </c>
+      <c r="E54">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55">
+        <v>121.3181</v>
+      </c>
+      <c r="E55">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56">
+        <v>121.4478</v>
+      </c>
+      <c r="E56">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57">
+        <v>121.2611</v>
+      </c>
+      <c r="E57">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E58">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59">
+        <v>117.5564</v>
+      </c>
+      <c r="E59">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60">
+        <v>117.2852</v>
+      </c>
+      <c r="E60">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>117.5852</v>
+      </c>
+      <c r="E61">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62">
+        <v>117.732</v>
+      </c>
+      <c r="E62">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E63">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>118.0448</v>
+      </c>
+      <c r="E64">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E65">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>118.3092</v>
+      </c>
+      <c r="E66">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E67">
+        <v>36.804099999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F1DB8F-FD52-4F79-9853-846B5BBA5CF0}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.184</v>
+      </c>
+      <c r="E2">
+        <v>39.1205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3E00E-9F0F-4834-B154-7A33D48872AD}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A4:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E2">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.202</v>
+      </c>
+      <c r="E3">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9A5BF3-3A05-4634-8274-649AB2C4C541}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.1837</v>
+      </c>
+      <c r="E2">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E3">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66057B74-7B54-4562-A525-A35BCB741055}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.307</v>
+      </c>
+      <c r="E2">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E3">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9146751E-27E7-4DDC-B753-6B9D8321CEC2}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E2">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.401</v>
+      </c>
+      <c r="E3">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2C5E76-86FD-4C1C-A597-7B22D6BDE22F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.764</v>
+      </c>
+      <c r="E2">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -4875,7 +7822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463143AB-D2F1-4DFC-BFE8-23B102F5F87D}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -5333,1415 +8280,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2">
-        <v>114.5261</v>
-      </c>
-      <c r="E2">
-        <v>37.0533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3">
-        <v>114.5331</v>
-      </c>
-      <c r="E3">
-        <v>37.096400000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4">
-        <v>114.4854</v>
-      </c>
-      <c r="E4">
-        <v>37.061999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5">
-        <v>116.988</v>
-      </c>
-      <c r="E5">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6">
-        <v>116.93</v>
-      </c>
-      <c r="E6">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7">
-        <v>117.114</v>
-      </c>
-      <c r="E7">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8">
-        <v>116.989</v>
-      </c>
-      <c r="E8">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9">
-        <v>117.0684</v>
-      </c>
-      <c r="E9">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10">
-        <v>116.943</v>
-      </c>
-      <c r="E10">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E11">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E12">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E13">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14">
-        <v>120.3905</v>
-      </c>
-      <c r="E14">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15">
-        <v>120.3471</v>
-      </c>
-      <c r="E15">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16">
-        <v>120.4134</v>
-      </c>
-      <c r="E16">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17">
-        <v>120.3664</v>
-      </c>
-      <c r="E17">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18">
-        <v>120.2992</v>
-      </c>
-      <c r="E18">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E19">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20">
-        <v>120.1964</v>
-      </c>
-      <c r="E20">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E21">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>117.685</v>
-      </c>
-      <c r="E22">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>117.6789</v>
-      </c>
-      <c r="E23">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>117.715</v>
-      </c>
-      <c r="E24">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E25">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E26">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E100" xr:uid="{035B6B4E-D8F7-4617-84CF-749466A31CCB}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8FB034-7678-4AEB-9725-29640D0371F2}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>118.2764</v>
-      </c>
-      <c r="E2">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>118.4023</v>
-      </c>
-      <c r="E3">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4">
-        <v>116.3061</v>
-      </c>
-      <c r="E4">
-        <v>37.4664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5">
-        <v>116.27290000000001</v>
-      </c>
-      <c r="E5">
-        <v>37.450400000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6">
-        <v>116.3189</v>
-      </c>
-      <c r="E6">
-        <v>37.448900000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7">
-        <v>115.98480000000001</v>
-      </c>
-      <c r="E7">
-        <v>36.437199999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8">
-        <v>115.99679999999999</v>
-      </c>
-      <c r="E8">
-        <v>36.456800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9">
-        <v>115.98350000000001</v>
-      </c>
-      <c r="E9">
-        <v>36.479599999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10">
-        <v>118.00620000000001</v>
-      </c>
-      <c r="E10">
-        <v>37.380299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11">
-        <v>118.0018</v>
-      </c>
-      <c r="E11">
-        <v>37.361699999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12">
-        <v>117.9776</v>
-      </c>
-      <c r="E12">
-        <v>37.393000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E13">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>118.0448</v>
-      </c>
-      <c r="E14">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>117.8477</v>
-      </c>
-      <c r="E15">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E16">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>118.3092</v>
-      </c>
-      <c r="E17">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E18">
-        <v>36.804099999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>117.5564</v>
-      </c>
-      <c r="E19">
-        <v>34.863999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>117.2852</v>
-      </c>
-      <c r="E20">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>117.5852</v>
-      </c>
-      <c r="E21">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>117.732</v>
-      </c>
-      <c r="E22">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E23">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24">
-        <v>121.2514</v>
-      </c>
-      <c r="E24">
-        <v>37.563899999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>291</v>
-      </c>
-      <c r="B25" t="s">
-        <v>292</v>
-      </c>
-      <c r="C25" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25">
-        <v>121.3719</v>
-      </c>
-      <c r="E25">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26">
-        <v>121.3181</v>
-      </c>
-      <c r="E26">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{8FB500C4-7CCC-4B9B-BD16-2B944240FF87}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00556B5-25B7-43BE-8B64-F9D663C7D41D}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2">
-        <v>121.4478</v>
-      </c>
-      <c r="E2">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3">
-        <v>121.2611</v>
-      </c>
-      <c r="E3">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E4">
-        <v>37.3872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>119.12</v>
-      </c>
-      <c r="E5">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6">
-        <v>119.0919</v>
-      </c>
-      <c r="E6">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7">
-        <v>119.1425</v>
-      </c>
-      <c r="E7">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>119.1614</v>
-      </c>
-      <c r="E8">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>119.1939</v>
-      </c>
-      <c r="E9">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10">
-        <v>116.6305</v>
-      </c>
-      <c r="E10">
-        <v>35.427999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11">
-        <v>116.5856</v>
-      </c>
-      <c r="E11">
-        <v>35.414400000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12">
-        <v>116.55459999999999</v>
-      </c>
-      <c r="E12">
-        <v>35.4039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13">
-        <v>117.14360000000001</v>
-      </c>
-      <c r="E13">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14">
-        <v>117.0881</v>
-      </c>
-      <c r="E14">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15">
-        <v>117.10809999999999</v>
-      </c>
-      <c r="E15">
-        <v>36.175800000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>119.4641</v>
-      </c>
-      <c r="E16">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>119.5198</v>
-      </c>
-      <c r="E17">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18">
-        <v>119.54</v>
-      </c>
-      <c r="E18">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19">
-        <v>122.1206</v>
-      </c>
-      <c r="E19">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>122.0508</v>
-      </c>
-      <c r="E20">
-        <v>37.532499999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21">
-        <v>122.1067</v>
-      </c>
-      <c r="E21">
-        <v>37.507199999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22">
-        <v>118.50190000000001</v>
-      </c>
-      <c r="E22">
-        <v>37.465800000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E23">
-        <v>37.431399999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24">
-        <v>118.5857</v>
-      </c>
-      <c r="E24">
-        <v>37.444200000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25">
-        <v>118.8192</v>
-      </c>
-      <c r="E25">
-        <v>37.378100000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26">
-        <v>115.42277</v>
-      </c>
-      <c r="E26">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27">
-        <v>115.474722</v>
-      </c>
-      <c r="E27">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28">
-        <v>115.455</v>
-      </c>
-      <c r="E28">
-        <v>35.270000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,31 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC4B849-F4FE-4E6C-9D99-D29D5D8FBDF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79EF53D-3734-4FEB-8312-21466D4DC855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="样例1" sheetId="1" r:id="rId1"/>
-    <sheet name="T1" sheetId="11" r:id="rId2"/>
-    <sheet name="T2" sheetId="12" r:id="rId3"/>
-    <sheet name="T3" sheetId="13" r:id="rId4"/>
-    <sheet name="T4" sheetId="14" r:id="rId5"/>
-    <sheet name="T5" sheetId="15" r:id="rId6"/>
-    <sheet name="T6" sheetId="16" r:id="rId7"/>
-    <sheet name="样例2" sheetId="2" r:id="rId8"/>
-    <sheet name="样例3" sheetId="3" r:id="rId9"/>
-    <sheet name="样例4" sheetId="4" r:id="rId10"/>
-    <sheet name="样例5" sheetId="5" r:id="rId11"/>
-    <sheet name="样例6" sheetId="7" r:id="rId12"/>
-    <sheet name="station152" sheetId="6" r:id="rId13"/>
-    <sheet name="缺失152-86" sheetId="10" r:id="rId14"/>
+    <sheet name="样例2" sheetId="2" r:id="rId2"/>
+    <sheet name="样例3" sheetId="3" r:id="rId3"/>
+    <sheet name="样例4" sheetId="4" r:id="rId4"/>
+    <sheet name="样例5" sheetId="5" r:id="rId5"/>
+    <sheet name="样例6" sheetId="7" r:id="rId6"/>
+    <sheet name="station152" sheetId="6" r:id="rId7"/>
+    <sheet name="缺失152-86" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">样例2!$D$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">样例3!$D$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例4!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例5!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">样例2!$D$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">样例3!$D$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">样例4!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">样例5!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -49,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="324">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1347,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1576,223 +1570,223 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>117.151</v>
+        <v>117.193</v>
       </c>
       <c r="E14">
-        <v>39.097000000000001</v>
+        <v>39.173000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>117.193</v>
+        <v>117.145</v>
       </c>
       <c r="E15">
-        <v>39.173000000000002</v>
+        <v>39.165399999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>117.145</v>
+        <v>117.184</v>
       </c>
       <c r="E16">
-        <v>39.165399999999998</v>
+        <v>39.1205</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17">
-        <v>117.184</v>
+        <v>117.23699999999999</v>
       </c>
       <c r="E17">
-        <v>39.1205</v>
+        <v>39.108199999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>117.23699999999999</v>
+        <v>117.202</v>
       </c>
       <c r="E18">
-        <v>39.108199999999997</v>
+        <v>39.092700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>117.202</v>
+        <v>117.1837</v>
       </c>
       <c r="E19">
-        <v>39.092700000000001</v>
+        <v>39.213299999999997</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>117.1837</v>
+        <v>117.26900000000001</v>
       </c>
       <c r="E20">
-        <v>39.213299999999997</v>
+        <v>39.133699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>117.26900000000001</v>
+        <v>117.307</v>
       </c>
       <c r="E21">
-        <v>39.133699999999997</v>
+        <v>39.087699999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>117.307</v>
+        <v>117.70699999999999</v>
       </c>
       <c r="E22">
-        <v>39.087699999999998</v>
+        <v>39.034300000000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>117.70699999999999</v>
+        <v>117.45699999999999</v>
       </c>
       <c r="E23">
-        <v>39.034300000000002</v>
+        <v>38.839399999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24">
-        <v>117.45699999999999</v>
+        <v>117.401</v>
       </c>
       <c r="E24">
-        <v>38.839399999999998</v>
+        <v>39.124000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>117.401</v>
+        <v>117.764</v>
       </c>
       <c r="E25">
-        <v>39.124000000000002</v>
+        <v>39.158700000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>117.764</v>
+        <v>117.151</v>
       </c>
       <c r="E26">
-        <v>39.158700000000003</v>
+        <v>39.097000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1795,927 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>114.3541</v>
+      </c>
+      <c r="E8">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>118.1662</v>
+      </c>
+      <c r="E9">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E10">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>118.1853</v>
+      </c>
+      <c r="E11">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E12">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E13">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E14">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E15">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16">
+        <v>119.7624</v>
+      </c>
+      <c r="E16">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <v>119.6023</v>
+      </c>
+      <c r="E17">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18">
+        <v>119.607</v>
+      </c>
+      <c r="E18">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>119.5369</v>
+      </c>
+      <c r="E19">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>114.5129</v>
+      </c>
+      <c r="E20">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E21">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>114.5035</v>
+      </c>
+      <c r="E22">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>114.4965</v>
+      </c>
+      <c r="E23">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25">
+        <v>115.5223</v>
+      </c>
+      <c r="E25">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.157</v>
+      </c>
+      <c r="E26">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:E16" xr:uid="{01BC3219-D390-467D-BB12-6A1DE90E83F3}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463143AB-D2F1-4DFC-BFE8-23B102F5F87D}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2">
+        <v>115.4713</v>
+      </c>
+      <c r="E2">
+        <v>38.910800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E3">
+        <v>38.8416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E4">
+        <v>38.875599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5">
+        <v>115.5214</v>
+      </c>
+      <c r="E5">
+        <v>38.870699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>114.8985</v>
+      </c>
+      <c r="E6">
+        <v>40.8367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>114.892</v>
+      </c>
+      <c r="E7">
+        <v>40.794809999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>114.8814</v>
+      </c>
+      <c r="E8">
+        <v>40.811500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>114.9032</v>
+      </c>
+      <c r="E9">
+        <v>40.768799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>114.904</v>
+      </c>
+      <c r="E10">
+        <v>40.872500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E11">
+        <v>40.9161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12">
+        <v>117.9525</v>
+      </c>
+      <c r="E12">
+        <v>40.984299999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E13">
+        <v>40.935899999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14">
+        <v>117.8184</v>
+      </c>
+      <c r="E14">
+        <v>40.973300000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>117.9384</v>
+      </c>
+      <c r="E15">
+        <v>41.011200000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E16">
+        <v>39.517800000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E17">
+        <v>39.5747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18">
+        <v>116.715</v>
+      </c>
+      <c r="E18">
+        <v>39.557099999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E19">
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20">
+        <v>116.8854</v>
+      </c>
+      <c r="E20">
+        <v>38.299100000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21">
+        <v>116.8584</v>
+      </c>
+      <c r="E21">
+        <v>38.325400000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E22">
+        <v>38.322800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23">
+        <v>115.6951</v>
+      </c>
+      <c r="E23">
+        <v>37.7575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24">
+        <v>115.6426</v>
+      </c>
+      <c r="E24">
+        <v>37.737900000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25">
+        <v>115.6906</v>
+      </c>
+      <c r="E25">
+        <v>37.738999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26">
+        <v>114.4821</v>
+      </c>
+      <c r="E26">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:E100" xr:uid="{7AAF0761-FEF0-416D-B275-63ACFBBEC5E6}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2260,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8FB034-7678-4AEB-9725-29640D0371F2}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2722,7 +3636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00556B5-25B7-43BE-8B64-F9D663C7D41D}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -3217,7 +4131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -5838,7 +6752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E71432-076E-4B36-BE65-904D2F994836}">
   <dimension ref="A1:E67"/>
   <sheetViews>
@@ -6991,1293 +7905,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F1DB8F-FD52-4F79-9853-846B5BBA5CF0}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.184</v>
-      </c>
-      <c r="E2">
-        <v>39.1205</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3E00E-9F0F-4834-B154-7A33D48872AD}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E2">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>117.202</v>
-      </c>
-      <c r="E3">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9A5BF3-3A05-4634-8274-649AB2C4C541}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.1837</v>
-      </c>
-      <c r="E2">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E3">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66057B74-7B54-4562-A525-A35BCB741055}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.307</v>
-      </c>
-      <c r="E2">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E3">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9146751E-27E7-4DDC-B753-6B9D8321CEC2}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E2">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>117.401</v>
-      </c>
-      <c r="E3">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2C5E76-86FD-4C1C-A597-7B22D6BDE22F}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.764</v>
-      </c>
-      <c r="E2">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.157</v>
-      </c>
-      <c r="E2">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E3">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4">
-        <v>114.6046</v>
-      </c>
-      <c r="E4">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E5">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>114.4586111</v>
-      </c>
-      <c r="E6">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>114.5330556</v>
-      </c>
-      <c r="E7">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8">
-        <v>114.5214</v>
-      </c>
-      <c r="E8">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9">
-        <v>114.3541</v>
-      </c>
-      <c r="E9">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10">
-        <v>118.1662</v>
-      </c>
-      <c r="E10">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E11">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12">
-        <v>118.1853</v>
-      </c>
-      <c r="E12">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E13">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E14">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E15">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E16">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17">
-        <v>119.7624</v>
-      </c>
-      <c r="E17">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18">
-        <v>119.6023</v>
-      </c>
-      <c r="E18">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19">
-        <v>119.607</v>
-      </c>
-      <c r="E19">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20">
-        <v>119.5369</v>
-      </c>
-      <c r="E20">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21">
-        <v>114.5129</v>
-      </c>
-      <c r="E21">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E22">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23">
-        <v>114.5035</v>
-      </c>
-      <c r="E23">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24">
-        <v>114.4965</v>
-      </c>
-      <c r="E24">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E25">
-        <v>38.863199999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26">
-        <v>115.5223</v>
-      </c>
-      <c r="E26">
-        <v>38.895699999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="D1:E17" xr:uid="{01BC3219-D390-467D-BB12-6A1DE90E83F3}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463143AB-D2F1-4DFC-BFE8-23B102F5F87D}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2">
-        <v>115.4713</v>
-      </c>
-      <c r="E2">
-        <v>38.910800000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3">
-        <v>115.46120000000001</v>
-      </c>
-      <c r="E3">
-        <v>38.8416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4">
-        <v>115.44199999999999</v>
-      </c>
-      <c r="E4">
-        <v>38.875599999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5">
-        <v>115.5214</v>
-      </c>
-      <c r="E5">
-        <v>38.870699999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>114.8985</v>
-      </c>
-      <c r="E6">
-        <v>40.8367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>114.892</v>
-      </c>
-      <c r="E7">
-        <v>40.794809999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>114.8814</v>
-      </c>
-      <c r="E8">
-        <v>40.811500000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>114.9032</v>
-      </c>
-      <c r="E9">
-        <v>40.768799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>114.904</v>
-      </c>
-      <c r="E10">
-        <v>40.872500000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E11">
-        <v>40.9161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12">
-        <v>117.9525</v>
-      </c>
-      <c r="E12">
-        <v>40.984299999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E13">
-        <v>40.935899999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14">
-        <v>117.8184</v>
-      </c>
-      <c r="E14">
-        <v>40.973300000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15">
-        <v>117.9384</v>
-      </c>
-      <c r="E15">
-        <v>41.011200000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16">
-        <v>116.68380000000001</v>
-      </c>
-      <c r="E16">
-        <v>39.517800000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17">
-        <v>116.77290000000001</v>
-      </c>
-      <c r="E17">
-        <v>39.5747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18">
-        <v>116.715</v>
-      </c>
-      <c r="E18">
-        <v>39.557099999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19">
-        <v>116.74639999999999</v>
-      </c>
-      <c r="E19">
-        <v>39.534300000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20">
-        <v>116.8854</v>
-      </c>
-      <c r="E20">
-        <v>38.299100000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21">
-        <v>116.8584</v>
-      </c>
-      <c r="E21">
-        <v>38.325400000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22">
-        <v>116.87090000000001</v>
-      </c>
-      <c r="E22">
-        <v>38.322800000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23">
-        <v>115.6951</v>
-      </c>
-      <c r="E23">
-        <v>37.7575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24">
-        <v>115.6426</v>
-      </c>
-      <c r="E24">
-        <v>37.737900000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25">
-        <v>115.6906</v>
-      </c>
-      <c r="E25">
-        <v>37.738999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26">
-        <v>114.4821</v>
-      </c>
-      <c r="E26">
-        <v>37.096699999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="D1:E100" xr:uid="{7AAF0761-FEF0-416D-B275-63ACFBBEC5E6}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,25 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79EF53D-3734-4FEB-8312-21466D4DC855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA4BF3-57B3-4F88-975E-18EE2D719F73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="样例1" sheetId="1" r:id="rId1"/>
-    <sheet name="样例2" sheetId="2" r:id="rId2"/>
-    <sheet name="样例3" sheetId="3" r:id="rId3"/>
-    <sheet name="样例4" sheetId="4" r:id="rId4"/>
-    <sheet name="样例5" sheetId="5" r:id="rId5"/>
-    <sheet name="样例6" sheetId="7" r:id="rId6"/>
-    <sheet name="station152" sheetId="6" r:id="rId7"/>
-    <sheet name="缺失152-86" sheetId="10" r:id="rId8"/>
+    <sheet name="V4P1" sheetId="11" r:id="rId1"/>
+    <sheet name="V4P2" sheetId="12" r:id="rId2"/>
+    <sheet name="V4P3" sheetId="17" r:id="rId3"/>
+    <sheet name="V4P4" sheetId="18" r:id="rId4"/>
+    <sheet name="V4P5" sheetId="15" r:id="rId5"/>
+    <sheet name="V4P6" sheetId="16" r:id="rId6"/>
+    <sheet name="ERROR" sheetId="13" r:id="rId7"/>
+    <sheet name="样例1" sheetId="1" r:id="rId8"/>
+    <sheet name="样例2" sheetId="2" r:id="rId9"/>
+    <sheet name="样例3" sheetId="3" r:id="rId10"/>
+    <sheet name="样例4" sheetId="4" r:id="rId11"/>
+    <sheet name="样例5" sheetId="5" r:id="rId12"/>
+    <sheet name="样例6" sheetId="7" r:id="rId13"/>
+    <sheet name="station152" sheetId="6" r:id="rId14"/>
+    <sheet name="缺失152-86" sheetId="10" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">样例2!$D$1:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">样例3!$D$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">样例4!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">样例5!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">样例2!$D$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例3!$D$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例4!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">样例5!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="324">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1338,14 +1345,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35975FBF-B5E0-4A2A-9935-8FE26E5628E7}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1366,896 +1376,29 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>117.764</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>117.193</v>
-      </c>
-      <c r="E14">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>117.145</v>
-      </c>
-      <c r="E15">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>117.184</v>
-      </c>
-      <c r="E16">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E17">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>117.202</v>
-      </c>
-      <c r="E18">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>117.1837</v>
-      </c>
-      <c r="E19">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E20">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>117.307</v>
-      </c>
-      <c r="E21">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E22">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E23">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>117.401</v>
-      </c>
-      <c r="E24">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.764</v>
-      </c>
-      <c r="E25">
         <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.151</v>
-      </c>
-      <c r="E26">
-        <v>39.097000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E2">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3">
-        <v>114.6046</v>
-      </c>
-      <c r="E3">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E4">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>114.4586111</v>
-      </c>
-      <c r="E5">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>114.5330556</v>
-      </c>
-      <c r="E6">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>114.5214</v>
-      </c>
-      <c r="E7">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8">
-        <v>114.3541</v>
-      </c>
-      <c r="E8">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9">
-        <v>118.1662</v>
-      </c>
-      <c r="E9">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E10">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11">
-        <v>118.1853</v>
-      </c>
-      <c r="E11">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E12">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E13">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E14">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E15">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16">
-        <v>119.7624</v>
-      </c>
-      <c r="E16">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17">
-        <v>119.6023</v>
-      </c>
-      <c r="E17">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18">
-        <v>119.607</v>
-      </c>
-      <c r="E18">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19">
-        <v>119.5369</v>
-      </c>
-      <c r="E19">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20">
-        <v>114.5129</v>
-      </c>
-      <c r="E20">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E21">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22">
-        <v>114.5035</v>
-      </c>
-      <c r="E22">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23">
-        <v>114.4965</v>
-      </c>
-      <c r="E23">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.863199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25">
-        <v>115.5223</v>
-      </c>
-      <c r="E25">
-        <v>38.895699999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.157</v>
-      </c>
-      <c r="E26">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="D1:E16" xr:uid="{01BC3219-D390-467D-BB12-6A1DE90E83F3}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463143AB-D2F1-4DFC-BFE8-23B102F5F87D}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2715,12 +1858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3174,12 +2317,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8FB034-7678-4AEB-9725-29640D0371F2}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E18" sqref="A14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3636,12 +2779,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00556B5-25B7-43BE-8B64-F9D663C7D41D}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E28" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4131,7 +3274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -6752,7 +5895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E71432-076E-4B36-BE65-904D2F994836}">
   <dimension ref="A1:E67"/>
   <sheetViews>
@@ -7905,4 +7048,1398 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9757B7-3051-413A-9A29-A9C9BCAB25CE}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.151</v>
+      </c>
+      <c r="E2">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF272F95-9143-4F28-A52A-0A21589FFDC0}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.401</v>
+      </c>
+      <c r="E2">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57616D5-3F8F-402B-8CC8-73EF433870A7}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E2">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.307</v>
+      </c>
+      <c r="E3">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E97726-3B6B-4953-8B8F-8C916D9F84A4}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.401</v>
+      </c>
+      <c r="E2">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.157</v>
+      </c>
+      <c r="E3">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E4">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0715DF9F-AC33-4DE8-A166-E2729AA867E2}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.151</v>
+      </c>
+      <c r="E2">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.764</v>
+      </c>
+      <c r="E3">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DF1534-4DB5-4C30-BED1-8E06F87ED8BE}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.157</v>
+      </c>
+      <c r="E2">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.193</v>
+      </c>
+      <c r="E3">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>117.145</v>
+      </c>
+      <c r="E4">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>117.184</v>
+      </c>
+      <c r="E5">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E6">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>117.202</v>
+      </c>
+      <c r="E7">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>117.1837</v>
+      </c>
+      <c r="E8">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>117.193</v>
+      </c>
+      <c r="E14">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>117.145</v>
+      </c>
+      <c r="E15">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>117.184</v>
+      </c>
+      <c r="E16">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E17">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>117.202</v>
+      </c>
+      <c r="E18">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>117.1837</v>
+      </c>
+      <c r="E19">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E20">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>117.307</v>
+      </c>
+      <c r="E21">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E22">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E23">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>117.401</v>
+      </c>
+      <c r="E24">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>117.764</v>
+      </c>
+      <c r="E25">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.151</v>
+      </c>
+      <c r="E26">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>114.3541</v>
+      </c>
+      <c r="E8">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>118.1662</v>
+      </c>
+      <c r="E9">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E10">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>118.1853</v>
+      </c>
+      <c r="E11">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E12">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E13">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E14">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E15">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16">
+        <v>119.7624</v>
+      </c>
+      <c r="E16">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <v>119.6023</v>
+      </c>
+      <c r="E17">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18">
+        <v>119.607</v>
+      </c>
+      <c r="E18">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>119.5369</v>
+      </c>
+      <c r="E19">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>114.5129</v>
+      </c>
+      <c r="E20">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E21">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>114.5035</v>
+      </c>
+      <c r="E22">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>114.4965</v>
+      </c>
+      <c r="E23">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25">
+        <v>115.5223</v>
+      </c>
+      <c r="E25">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.157</v>
+      </c>
+      <c r="E26">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA4BF3-57B3-4F88-975E-18EE2D719F73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F5C66-A517-42E9-9DBF-04320E49AB7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4P1" sheetId="11" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="V4P4" sheetId="18" r:id="rId4"/>
     <sheet name="V4P5" sheetId="15" r:id="rId5"/>
     <sheet name="V4P6" sheetId="16" r:id="rId6"/>
-    <sheet name="ERROR" sheetId="13" r:id="rId7"/>
-    <sheet name="样例1" sheetId="1" r:id="rId8"/>
+    <sheet name="样例1" sheetId="1" r:id="rId7"/>
+    <sheet name="ERROR" sheetId="13" r:id="rId8"/>
     <sheet name="样例2" sheetId="2" r:id="rId9"/>
     <sheet name="样例3" sheetId="3" r:id="rId10"/>
     <sheet name="样例4" sheetId="4" r:id="rId11"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="324">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1346,16 +1346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35975FBF-B5E0-4A2A-9935-8FE26E5628E7}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1376,19 +1373,410 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.434</v>
+      </c>
+      <c r="E3">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.473</v>
+      </c>
+      <c r="E5">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.361</v>
+      </c>
+      <c r="E6">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.315</v>
+      </c>
+      <c r="E7">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.72</v>
+      </c>
+      <c r="E8">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E9">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.23</v>
+      </c>
+      <c r="E10">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.407</v>
+      </c>
+      <c r="E11">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E12">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>117.193</v>
+      </c>
+      <c r="E13">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>117.145</v>
+      </c>
+      <c r="E14">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>117.184</v>
+      </c>
+      <c r="E15">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E16">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>117.202</v>
+      </c>
+      <c r="E17">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>117.1837</v>
+      </c>
+      <c r="E18">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E19">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>117.307</v>
+      </c>
+      <c r="E20">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E21">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E22">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>117.401</v>
+      </c>
+      <c r="E23">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B24" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D24">
         <v>117.764</v>
       </c>
-      <c r="E2">
+      <c r="E24">
         <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>117.151</v>
+      </c>
+      <c r="E25">
+        <v>39.097000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7052,9 +7440,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9757B7-3051-413A-9A29-A9C9BCAB25CE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -7079,19 +7467,410 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E3">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>114.4586111</v>
+      </c>
+      <c r="E4">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>114.5330556</v>
+      </c>
+      <c r="E5">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>114.5214</v>
+      </c>
+      <c r="E6">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>114.3541</v>
+      </c>
+      <c r="E7">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8">
+        <v>118.1662</v>
+      </c>
+      <c r="E8">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E9">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>118.1853</v>
+      </c>
+      <c r="E10">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E11">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E12">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E13">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E14">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15">
+        <v>119.7624</v>
+      </c>
+      <c r="E15">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16">
+        <v>119.6023</v>
+      </c>
+      <c r="E16">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <v>119.607</v>
+      </c>
+      <c r="E17">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18">
+        <v>119.5369</v>
+      </c>
+      <c r="E18">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19">
+        <v>114.5129</v>
+      </c>
+      <c r="E19">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E20">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21">
+        <v>114.5035</v>
+      </c>
+      <c r="E21">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>114.4965</v>
+      </c>
+      <c r="E22">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E23">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24">
+        <v>115.5223</v>
+      </c>
+      <c r="E24">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>117.151</v>
-      </c>
-      <c r="E2">
-        <v>39.097000000000001</v>
+      <c r="D25">
+        <v>117.157</v>
+      </c>
+      <c r="E25">
+        <v>38.919400000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7104,7 +7883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF272F95-9143-4F28-A52A-0A21589FFDC0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -7376,6 +8155,464 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>117.193</v>
+      </c>
+      <c r="E14">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>117.145</v>
+      </c>
+      <c r="E15">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>117.184</v>
+      </c>
+      <c r="E16">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E17">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>117.202</v>
+      </c>
+      <c r="E18">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>117.1837</v>
+      </c>
+      <c r="E19">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E20">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>117.307</v>
+      </c>
+      <c r="E21">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E22">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E23">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>117.401</v>
+      </c>
+      <c r="E24">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>117.764</v>
+      </c>
+      <c r="E25">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.151</v>
+      </c>
+      <c r="E26">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DF1534-4DB5-4C30-BED1-8E06F87ED8BE}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7527,470 +8764,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>117.193</v>
-      </c>
-      <c r="E14">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>117.145</v>
-      </c>
-      <c r="E15">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>117.184</v>
-      </c>
-      <c r="E16">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E17">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>117.202</v>
-      </c>
-      <c r="E18">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>117.1837</v>
-      </c>
-      <c r="E19">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E20">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>117.307</v>
-      </c>
-      <c r="E21">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E22">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E23">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>117.401</v>
-      </c>
-      <c r="E24">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.764</v>
-      </c>
-      <c r="E25">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.151</v>
-      </c>
-      <c r="E26">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F5C66-A517-42E9-9DBF-04320E49AB7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C35DB5-4F74-43EE-9A58-6FA2A67A97D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4P1" sheetId="11" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="V4P4" sheetId="18" r:id="rId4"/>
     <sheet name="V4P5" sheetId="15" r:id="rId5"/>
     <sheet name="V4P6" sheetId="16" r:id="rId6"/>
-    <sheet name="样例1" sheetId="1" r:id="rId7"/>
-    <sheet name="ERROR" sheetId="13" r:id="rId8"/>
+    <sheet name="ERROR" sheetId="13" r:id="rId7"/>
+    <sheet name="样例1" sheetId="1" r:id="rId8"/>
     <sheet name="样例2" sheetId="2" r:id="rId9"/>
-    <sheet name="样例3" sheetId="3" r:id="rId10"/>
-    <sheet name="样例4" sheetId="4" r:id="rId11"/>
+    <sheet name="样例4" sheetId="4" r:id="rId10"/>
+    <sheet name="样例3" sheetId="3" r:id="rId11"/>
     <sheet name="样例5" sheetId="5" r:id="rId12"/>
     <sheet name="样例6" sheetId="7" r:id="rId13"/>
     <sheet name="station152" sheetId="6" r:id="rId14"/>
@@ -31,8 +31,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">样例2!$D$1:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例3!$D$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例4!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例3!$D$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例4!$A$1:$E$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">样例5!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="349">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1022,6 +1022,106 @@
   </si>
   <si>
     <t>广南水库</t>
+  </si>
+  <si>
+    <t>万寿西宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农展馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区万柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺义新城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀柔镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥体中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南口路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤俭路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大直沽八号路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北辰科技园区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃进路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四大街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永明路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉北路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市监测中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1787,11 +1887,470 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A13:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2">
+        <v>114.5261</v>
+      </c>
+      <c r="E2">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3">
+        <v>114.5331</v>
+      </c>
+      <c r="E3">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4">
+        <v>114.4854</v>
+      </c>
+      <c r="E4">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5">
+        <v>116.988</v>
+      </c>
+      <c r="E5">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6">
+        <v>116.93</v>
+      </c>
+      <c r="E6">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7">
+        <v>117.114</v>
+      </c>
+      <c r="E7">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8">
+        <v>116.989</v>
+      </c>
+      <c r="E8">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9">
+        <v>117.0684</v>
+      </c>
+      <c r="E9">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>116.943</v>
+      </c>
+      <c r="E10">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E11">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E12">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E13">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <v>120.3905</v>
+      </c>
+      <c r="E14">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15">
+        <v>120.3471</v>
+      </c>
+      <c r="E15">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16">
+        <v>120.4134</v>
+      </c>
+      <c r="E16">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17">
+        <v>120.3664</v>
+      </c>
+      <c r="E17">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18">
+        <v>120.2992</v>
+      </c>
+      <c r="E18">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E19">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20">
+        <v>120.1964</v>
+      </c>
+      <c r="E20">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E21">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>117.685</v>
+      </c>
+      <c r="E22">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>117.6789</v>
+      </c>
+      <c r="E23">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>117.715</v>
+      </c>
+      <c r="E24">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E25">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E26">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E100" xr:uid="{035B6B4E-D8F7-4617-84CF-749466A31CCB}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463143AB-D2F1-4DFC-BFE8-23B102F5F87D}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2246,470 +2805,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2">
-        <v>114.5261</v>
-      </c>
-      <c r="E2">
-        <v>37.0533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3">
-        <v>114.5331</v>
-      </c>
-      <c r="E3">
-        <v>37.096400000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4">
-        <v>114.4854</v>
-      </c>
-      <c r="E4">
-        <v>37.061999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5">
-        <v>116.988</v>
-      </c>
-      <c r="E5">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6">
-        <v>116.93</v>
-      </c>
-      <c r="E6">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7">
-        <v>117.114</v>
-      </c>
-      <c r="E7">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8">
-        <v>116.989</v>
-      </c>
-      <c r="E8">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9">
-        <v>117.0684</v>
-      </c>
-      <c r="E9">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10">
-        <v>116.943</v>
-      </c>
-      <c r="E10">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E11">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E12">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E13">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14">
-        <v>120.3905</v>
-      </c>
-      <c r="E14">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15">
-        <v>120.3471</v>
-      </c>
-      <c r="E15">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16">
-        <v>120.4134</v>
-      </c>
-      <c r="E16">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17">
-        <v>120.3664</v>
-      </c>
-      <c r="E17">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18">
-        <v>120.2992</v>
-      </c>
-      <c r="E18">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E19">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20">
-        <v>120.1964</v>
-      </c>
-      <c r="E20">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E21">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>117.685</v>
-      </c>
-      <c r="E22">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>117.6789</v>
-      </c>
-      <c r="E23">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>117.715</v>
-      </c>
-      <c r="E24">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E25">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E26">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E100" xr:uid="{035B6B4E-D8F7-4617-84CF-749466A31CCB}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8FB034-7678-4AEB-9725-29640D0371F2}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E18" sqref="A14:E18"/>
     </sheetView>
   </sheetViews>
@@ -7442,7 +7542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9757B7-3051-413A-9A29-A9C9BCAB25CE}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -8155,464 +8255,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>117.193</v>
-      </c>
-      <c r="E14">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>117.145</v>
-      </c>
-      <c r="E15">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>117.184</v>
-      </c>
-      <c r="E16">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E17">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>117.202</v>
-      </c>
-      <c r="E18">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>117.1837</v>
-      </c>
-      <c r="E19">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E20">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>117.307</v>
-      </c>
-      <c r="E21">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E22">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E23">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>117.401</v>
-      </c>
-      <c r="E24">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.764</v>
-      </c>
-      <c r="E25">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.151</v>
-      </c>
-      <c r="E26">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DF1534-4DB5-4C30-BED1-8E06F87ED8BE}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -8764,12 +8406,473 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>117.193</v>
+      </c>
+      <c r="E14">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>117.145</v>
+      </c>
+      <c r="E15">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>117.184</v>
+      </c>
+      <c r="E16">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E17">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>117.202</v>
+      </c>
+      <c r="E18">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>117.1837</v>
+      </c>
+      <c r="E19">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E20">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>117.307</v>
+      </c>
+      <c r="E21">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E22">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E23">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>117.401</v>
+      </c>
+      <c r="E24">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>117.764</v>
+      </c>
+      <c r="E25">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.151</v>
+      </c>
+      <c r="E26">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:XFD1048576"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C35DB5-4F74-43EE-9A58-6FA2A67A97D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DBF989-C955-409C-8C99-7FF61A0D1178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4P1" sheetId="11" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="349">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1446,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35975FBF-B5E0-4A2A-9935-8FE26E5628E7}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1473,410 +1473,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>116.434</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
+        <v>39.874499999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>116.434</v>
+        <v>116.473</v>
       </c>
       <c r="E3">
-        <v>39.952199999999998</v>
+        <v>39.971600000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4">
-        <v>116.434</v>
+        <v>116.361</v>
       </c>
       <c r="E4">
-        <v>39.874499999999998</v>
+        <v>39.942500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5">
-        <v>116.473</v>
+        <v>116.315</v>
       </c>
       <c r="E5">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>116.361</v>
-      </c>
-      <c r="E6">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>116.315</v>
-      </c>
-      <c r="E7">
         <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>116.72</v>
-      </c>
-      <c r="E8">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E9">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>116.23</v>
-      </c>
-      <c r="E10">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.407</v>
-      </c>
-      <c r="E11">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E12">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>117.193</v>
-      </c>
-      <c r="E13">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>117.145</v>
-      </c>
-      <c r="E14">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>117.184</v>
-      </c>
-      <c r="E15">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E16">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>117.202</v>
-      </c>
-      <c r="E17">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>117.1837</v>
-      </c>
-      <c r="E18">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E19">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>117.307</v>
-      </c>
-      <c r="E20">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E21">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E22">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>117.401</v>
-      </c>
-      <c r="E23">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>117.764</v>
-      </c>
-      <c r="E24">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.151</v>
-      </c>
-      <c r="E25">
-        <v>39.097000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7540,10 +7200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9757B7-3051-413A-9A29-A9C9BCAB25CE}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E8" sqref="A5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7567,410 +7227,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>114.45480000000001</v>
+        <v>116.366</v>
       </c>
       <c r="E2">
-        <v>38.051299999999998</v>
+        <v>39.8673</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>114.50190000000001</v>
+        <v>116.17</v>
       </c>
       <c r="E3">
-        <v>38.139800000000001</v>
+        <v>40.286499999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>114.4586111</v>
+        <v>116.434</v>
       </c>
       <c r="E4">
-        <v>38.005833330000002</v>
+        <v>39.952199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>114.5330556</v>
+        <v>116.434</v>
       </c>
       <c r="E5">
-        <v>38.017777780000003</v>
+        <v>39.874499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>114.5214</v>
+        <v>116.473</v>
       </c>
       <c r="E6">
-        <v>38.052399999999999</v>
+        <v>39.971600000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>114.3541</v>
+        <v>116.361</v>
       </c>
       <c r="E7">
-        <v>37.909700000000001</v>
+        <v>39.942500000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>118.1662</v>
+        <v>116.315</v>
       </c>
       <c r="E8">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E9">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10">
-        <v>118.1853</v>
-      </c>
-      <c r="E10">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E11">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E12">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E13">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E14">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15">
-        <v>119.7624</v>
-      </c>
-      <c r="E15">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16">
-        <v>119.6023</v>
-      </c>
-      <c r="E16">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17">
-        <v>119.607</v>
-      </c>
-      <c r="E17">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18">
-        <v>119.5369</v>
-      </c>
-      <c r="E18">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19">
-        <v>114.5129</v>
-      </c>
-      <c r="E19">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E20">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21">
-        <v>114.5035</v>
-      </c>
-      <c r="E21">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22">
-        <v>114.4965</v>
-      </c>
-      <c r="E22">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E23">
-        <v>38.863199999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24">
-        <v>115.5223</v>
-      </c>
-      <c r="E24">
-        <v>38.895699999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.157</v>
-      </c>
-      <c r="E25">
-        <v>38.919400000000003</v>
+        <v>39.993400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF272F95-9143-4F28-A52A-0A21589FFDC0}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8008,19 +7379,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>117.401</v>
+        <v>116.72</v>
       </c>
       <c r="E2">
-        <v>39.124000000000002</v>
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E3">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.23</v>
+      </c>
+      <c r="E4">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.407</v>
+      </c>
+      <c r="E5">
+        <v>40.003100000000003</v>
       </c>
     </row>
   </sheetData>
@@ -8032,10 +7454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57616D5-3F8F-402B-8CC8-73EF433870A7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8059,36 +7481,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>117.70699999999999</v>
+        <v>116.22499999999999</v>
       </c>
       <c r="E2">
-        <v>39.034300000000002</v>
+        <v>39.927900000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>117.307</v>
+        <v>117.193</v>
       </c>
       <c r="E3">
-        <v>39.087699999999998</v>
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>117.145</v>
+      </c>
+      <c r="E4">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>117.184</v>
+      </c>
+      <c r="E5">
+        <v>39.1205</v>
       </c>
     </row>
   </sheetData>
@@ -8099,10 +7555,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E97726-3B6B-4953-8B8F-8C916D9F84A4}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8129,53 +7585,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>117.401</v>
+        <v>117.23699999999999</v>
       </c>
       <c r="E2">
-        <v>39.124000000000002</v>
+        <v>39.108199999999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>117.157</v>
+        <v>117.202</v>
       </c>
       <c r="E3">
-        <v>38.919400000000003</v>
+        <v>39.092700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>341</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>117.45699999999999</v>
+        <v>117.1837</v>
       </c>
       <c r="E4">
-        <v>38.839399999999998</v>
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E5">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>117.307</v>
+      </c>
+      <c r="E6">
+        <v>39.087699999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8186,10 +7676,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0715DF9F-AC33-4DE8-A166-E2729AA867E2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8216,36 +7706,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>117.151</v>
+        <v>117.70699999999999</v>
       </c>
       <c r="E2">
-        <v>39.097000000000001</v>
+        <v>39.034300000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E3">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>117.401</v>
+      </c>
+      <c r="E4">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>117.764</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>117.151</v>
+      </c>
+      <c r="E6">
+        <v>39.097000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8410,8 +7951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DBF989-C955-409C-8C99-7FF61A0D1178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE541C34-2F2D-4AF5-947D-19F964CC2EAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4P1" sheetId="11" r:id="rId1"/>
@@ -19,21 +19,21 @@
     <sheet name="V4P4" sheetId="18" r:id="rId4"/>
     <sheet name="V4P5" sheetId="15" r:id="rId5"/>
     <sheet name="V4P6" sheetId="16" r:id="rId6"/>
-    <sheet name="ERROR" sheetId="13" r:id="rId7"/>
-    <sheet name="样例1" sheetId="1" r:id="rId8"/>
-    <sheet name="样例2" sheetId="2" r:id="rId9"/>
-    <sheet name="样例4" sheetId="4" r:id="rId10"/>
-    <sheet name="样例3" sheetId="3" r:id="rId11"/>
-    <sheet name="样例5" sheetId="5" r:id="rId12"/>
-    <sheet name="样例6" sheetId="7" r:id="rId13"/>
-    <sheet name="station152" sheetId="6" r:id="rId14"/>
+    <sheet name="station152" sheetId="6" r:id="rId7"/>
+    <sheet name="ERROR" sheetId="13" r:id="rId8"/>
+    <sheet name="样例1" sheetId="1" r:id="rId9"/>
+    <sheet name="样例2" sheetId="2" r:id="rId10"/>
+    <sheet name="样例4" sheetId="4" r:id="rId11"/>
+    <sheet name="样例3" sheetId="3" r:id="rId12"/>
+    <sheet name="样例5" sheetId="5" r:id="rId13"/>
+    <sheet name="样例6" sheetId="7" r:id="rId14"/>
     <sheet name="缺失152-86" sheetId="10" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">样例2!$D$1:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例3!$D$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例4!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">样例5!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例2!$D$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">样例3!$D$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例4!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">样例5!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="349">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1446,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35975FBF-B5E0-4A2A-9935-8FE26E5628E7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1473,70 +1473,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>116.434</v>
+        <v>118.34180000000001</v>
       </c>
       <c r="E2">
-        <v>39.874499999999998</v>
+        <v>35.057299999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>116.473</v>
+        <v>118.29389999999999</v>
       </c>
       <c r="E3">
-        <v>39.971600000000002</v>
+        <v>35.062199999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="D4">
-        <v>116.361</v>
+        <v>115.49299999999999</v>
       </c>
       <c r="E4">
-        <v>39.942500000000003</v>
+        <v>38.863199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="D5">
-        <v>116.315</v>
+        <v>115.5223</v>
       </c>
       <c r="E5">
-        <v>39.993400000000001</v>
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6">
+        <v>118.1662</v>
+      </c>
+      <c r="E6">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E7">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8">
+        <v>118.1853</v>
+      </c>
+      <c r="E8">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E9">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E10">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E11">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>117.401</v>
+      </c>
+      <c r="E12">
+        <v>39.124000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1547,11 +1666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A13:A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1575,6 +1694,465 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>114.3541</v>
+      </c>
+      <c r="E8">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>118.1662</v>
+      </c>
+      <c r="E9">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E10">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>118.1853</v>
+      </c>
+      <c r="E11">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E12">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E13">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E14">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E15">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16">
+        <v>119.7624</v>
+      </c>
+      <c r="E16">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <v>119.6023</v>
+      </c>
+      <c r="E17">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18">
+        <v>119.607</v>
+      </c>
+      <c r="E18">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>119.5369</v>
+      </c>
+      <c r="E19">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>114.5129</v>
+      </c>
+      <c r="E20">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E21">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>114.5035</v>
+      </c>
+      <c r="E22">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>114.4965</v>
+      </c>
+      <c r="E23">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25">
+        <v>115.5223</v>
+      </c>
+      <c r="E25">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.157</v>
+      </c>
+      <c r="E26">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="A19:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>147</v>
       </c>
       <c r="B2" t="s">
@@ -2005,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463143AB-D2F1-4DFC-BFE8-23B102F5F87D}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2465,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8FB034-7678-4AEB-9725-29640D0371F2}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2927,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00556B5-25B7-43BE-8B64-F9D663C7D41D}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -3419,2627 +3997,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
-  <dimension ref="A1:E153"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>117.151</v>
-      </c>
-      <c r="E14">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>117.193</v>
-      </c>
-      <c r="E15">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>117.145</v>
-      </c>
-      <c r="E16">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>117.184</v>
-      </c>
-      <c r="E17">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E18">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>117.202</v>
-      </c>
-      <c r="E19">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>117.1837</v>
-      </c>
-      <c r="E20">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E21">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>117.307</v>
-      </c>
-      <c r="E22">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E23">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.401</v>
-      </c>
-      <c r="E25">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.764</v>
-      </c>
-      <c r="E26">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>117.157</v>
-      </c>
-      <c r="E27">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E28">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29">
-        <v>114.6046</v>
-      </c>
-      <c r="E29">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E30">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31">
-        <v>114.4586111</v>
-      </c>
-      <c r="E31">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32">
-        <v>114.5330556</v>
-      </c>
-      <c r="E32">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33">
-        <v>114.5214</v>
-      </c>
-      <c r="E33">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34">
-        <v>114.3541</v>
-      </c>
-      <c r="E34">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35">
-        <v>118.1662</v>
-      </c>
-      <c r="E35">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E36">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37">
-        <v>118.1853</v>
-      </c>
-      <c r="E37">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E38">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E39">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E40">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E41">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C42" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42">
-        <v>119.7624</v>
-      </c>
-      <c r="E42">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43">
-        <v>119.6023</v>
-      </c>
-      <c r="E43">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44">
-        <v>119.607</v>
-      </c>
-      <c r="E44">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45">
-        <v>119.5369</v>
-      </c>
-      <c r="E45">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46">
-        <v>114.5129</v>
-      </c>
-      <c r="E46">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E47">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48">
-        <v>114.5035</v>
-      </c>
-      <c r="E48">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49">
-        <v>114.4965</v>
-      </c>
-      <c r="E49">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E50">
-        <v>38.863199999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51">
-        <v>115.5223</v>
-      </c>
-      <c r="E51">
-        <v>38.895699999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52">
-        <v>115.4713</v>
-      </c>
-      <c r="E52">
-        <v>38.910800000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" t="s">
-        <v>234</v>
-      </c>
-      <c r="C53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53">
-        <v>115.46120000000001</v>
-      </c>
-      <c r="E53">
-        <v>38.8416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54">
-        <v>115.44199999999999</v>
-      </c>
-      <c r="E54">
-        <v>38.875599999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55">
-        <v>115.5214</v>
-      </c>
-      <c r="E55">
-        <v>38.870699999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>114.8985</v>
-      </c>
-      <c r="E56">
-        <v>40.8367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>114.892</v>
-      </c>
-      <c r="E57">
-        <v>40.794809999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>114.8814</v>
-      </c>
-      <c r="E58">
-        <v>40.811500000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>114.9032</v>
-      </c>
-      <c r="E59">
-        <v>40.768799999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>114.904</v>
-      </c>
-      <c r="E60">
-        <v>40.872500000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E61">
-        <v>40.9161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62">
-        <v>117.9525</v>
-      </c>
-      <c r="E62">
-        <v>40.984299999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E63">
-        <v>40.935899999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64">
-        <v>117.8184</v>
-      </c>
-      <c r="E64">
-        <v>40.973300000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65">
-        <v>117.9384</v>
-      </c>
-      <c r="E65">
-        <v>41.011200000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>238</v>
-      </c>
-      <c r="B66" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66">
-        <v>116.68380000000001</v>
-      </c>
-      <c r="E66">
-        <v>39.517800000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67">
-        <v>116.77290000000001</v>
-      </c>
-      <c r="E67">
-        <v>39.5747</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68">
-        <v>116.715</v>
-      </c>
-      <c r="E68">
-        <v>39.557099999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69">
-        <v>116.74639999999999</v>
-      </c>
-      <c r="E69">
-        <v>39.534300000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70">
-        <v>116.8854</v>
-      </c>
-      <c r="E70">
-        <v>38.299100000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71">
-        <v>116.8584</v>
-      </c>
-      <c r="E71">
-        <v>38.325400000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>246</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72">
-        <v>116.87090000000001</v>
-      </c>
-      <c r="E72">
-        <v>38.322800000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>247</v>
-      </c>
-      <c r="B73" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" t="s">
-        <v>249</v>
-      </c>
-      <c r="D73">
-        <v>115.6951</v>
-      </c>
-      <c r="E73">
-        <v>37.7575</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>250</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>249</v>
-      </c>
-      <c r="D74">
-        <v>115.6426</v>
-      </c>
-      <c r="E74">
-        <v>37.737900000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75">
-        <v>115.6906</v>
-      </c>
-      <c r="E75">
-        <v>37.738999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76">
-        <v>114.4821</v>
-      </c>
-      <c r="E76">
-        <v>37.096699999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77">
-        <v>114.5261</v>
-      </c>
-      <c r="E77">
-        <v>37.0533</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78">
-        <v>114.5331</v>
-      </c>
-      <c r="E78">
-        <v>37.096400000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79">
-        <v>114.4854</v>
-      </c>
-      <c r="E79">
-        <v>37.061999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80">
-        <v>116.988</v>
-      </c>
-      <c r="E80">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81">
-        <v>116.93</v>
-      </c>
-      <c r="E81">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82">
-        <v>117.114</v>
-      </c>
-      <c r="E82">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" t="s">
-        <v>154</v>
-      </c>
-      <c r="D83">
-        <v>116.989</v>
-      </c>
-      <c r="E83">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84">
-        <v>117.0684</v>
-      </c>
-      <c r="E84">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85">
-        <v>116.943</v>
-      </c>
-      <c r="E85">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>154</v>
-      </c>
-      <c r="D86">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E86">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E87">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E88">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89">
-        <v>120.3905</v>
-      </c>
-      <c r="E89">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90">
-        <v>120.3471</v>
-      </c>
-      <c r="E90">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91">
-        <v>120.4134</v>
-      </c>
-      <c r="E91">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>176</v>
-      </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92">
-        <v>120.3664</v>
-      </c>
-      <c r="E92">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93">
-        <v>120.2992</v>
-      </c>
-      <c r="E93">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>180</v>
-      </c>
-      <c r="B94" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E94">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>182</v>
-      </c>
-      <c r="B95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95">
-        <v>120.1964</v>
-      </c>
-      <c r="E95">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>184</v>
-      </c>
-      <c r="B96" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E96">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97">
-        <v>117.685</v>
-      </c>
-      <c r="E97">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98">
-        <v>117.6789</v>
-      </c>
-      <c r="E98">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99">
-        <v>117.715</v>
-      </c>
-      <c r="E99">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E100">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E101">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102">
-        <v>118.2764</v>
-      </c>
-      <c r="E102">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103">
-        <v>118.4023</v>
-      </c>
-      <c r="E103">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>252</v>
-      </c>
-      <c r="B104" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" t="s">
-        <v>254</v>
-      </c>
-      <c r="D104">
-        <v>116.3061</v>
-      </c>
-      <c r="E104">
-        <v>37.4664</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>255</v>
-      </c>
-      <c r="B105" t="s">
-        <v>256</v>
-      </c>
-      <c r="C105" t="s">
-        <v>254</v>
-      </c>
-      <c r="D105">
-        <v>116.27290000000001</v>
-      </c>
-      <c r="E105">
-        <v>37.450400000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>257</v>
-      </c>
-      <c r="B106" t="s">
-        <v>258</v>
-      </c>
-      <c r="C106" t="s">
-        <v>254</v>
-      </c>
-      <c r="D106">
-        <v>116.3189</v>
-      </c>
-      <c r="E106">
-        <v>37.448900000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>259</v>
-      </c>
-      <c r="B107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" t="s">
-        <v>261</v>
-      </c>
-      <c r="D107">
-        <v>115.98480000000001</v>
-      </c>
-      <c r="E107">
-        <v>36.437199999999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" t="s">
-        <v>263</v>
-      </c>
-      <c r="C108" t="s">
-        <v>261</v>
-      </c>
-      <c r="D108">
-        <v>115.99679999999999</v>
-      </c>
-      <c r="E108">
-        <v>36.456800000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>264</v>
-      </c>
-      <c r="B109" t="s">
-        <v>265</v>
-      </c>
-      <c r="C109" t="s">
-        <v>261</v>
-      </c>
-      <c r="D109">
-        <v>115.98350000000001</v>
-      </c>
-      <c r="E109">
-        <v>36.479599999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>266</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>267</v>
-      </c>
-      <c r="D110">
-        <v>118.00620000000001</v>
-      </c>
-      <c r="E110">
-        <v>37.380299999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>268</v>
-      </c>
-      <c r="B111" t="s">
-        <v>269</v>
-      </c>
-      <c r="C111" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111">
-        <v>118.0018</v>
-      </c>
-      <c r="E111">
-        <v>37.361699999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>270</v>
-      </c>
-      <c r="B112" t="s">
-        <v>271</v>
-      </c>
-      <c r="C112" t="s">
-        <v>267</v>
-      </c>
-      <c r="D112">
-        <v>117.9776</v>
-      </c>
-      <c r="E112">
-        <v>37.393000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>272</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E113">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>273</v>
-      </c>
-      <c r="B114" t="s">
-        <v>274</v>
-      </c>
-      <c r="C114" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114">
-        <v>118.0448</v>
-      </c>
-      <c r="E114">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115">
-        <v>117.8477</v>
-      </c>
-      <c r="E115">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>275</v>
-      </c>
-      <c r="B116" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E116">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>277</v>
-      </c>
-      <c r="B117" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117">
-        <v>118.3092</v>
-      </c>
-      <c r="E117">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>279</v>
-      </c>
-      <c r="B118" t="s">
-        <v>280</v>
-      </c>
-      <c r="C118" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E118">
-        <v>36.804099999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>281</v>
-      </c>
-      <c r="B119" t="s">
-        <v>282</v>
-      </c>
-      <c r="C119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119">
-        <v>117.5564</v>
-      </c>
-      <c r="E119">
-        <v>34.863999999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" t="s">
-        <v>284</v>
-      </c>
-      <c r="C120" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120">
-        <v>117.2852</v>
-      </c>
-      <c r="E120">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>285</v>
-      </c>
-      <c r="B121" t="s">
-        <v>286</v>
-      </c>
-      <c r="C121" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121">
-        <v>117.5852</v>
-      </c>
-      <c r="E121">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>287</v>
-      </c>
-      <c r="B122" t="s">
-        <v>288</v>
-      </c>
-      <c r="C122" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122">
-        <v>117.732</v>
-      </c>
-      <c r="E122">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E123">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>289</v>
-      </c>
-      <c r="B124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s">
-        <v>290</v>
-      </c>
-      <c r="D124">
-        <v>121.2514</v>
-      </c>
-      <c r="E124">
-        <v>37.563899999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>291</v>
-      </c>
-      <c r="B125" t="s">
-        <v>292</v>
-      </c>
-      <c r="C125" t="s">
-        <v>290</v>
-      </c>
-      <c r="D125">
-        <v>121.3719</v>
-      </c>
-      <c r="E125">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>293</v>
-      </c>
-      <c r="B126" t="s">
-        <v>294</v>
-      </c>
-      <c r="C126" t="s">
-        <v>290</v>
-      </c>
-      <c r="D126">
-        <v>121.3181</v>
-      </c>
-      <c r="E126">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>295</v>
-      </c>
-      <c r="B127" t="s">
-        <v>296</v>
-      </c>
-      <c r="C127" t="s">
-        <v>290</v>
-      </c>
-      <c r="D127">
-        <v>121.4478</v>
-      </c>
-      <c r="E127">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>297</v>
-      </c>
-      <c r="B128" t="s">
-        <v>298</v>
-      </c>
-      <c r="C128" t="s">
-        <v>290</v>
-      </c>
-      <c r="D128">
-        <v>121.2611</v>
-      </c>
-      <c r="E128">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>299</v>
-      </c>
-      <c r="B129" t="s">
-        <v>300</v>
-      </c>
-      <c r="C129" t="s">
-        <v>290</v>
-      </c>
-      <c r="D129">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E129">
-        <v>37.3872</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" t="s">
-        <v>37</v>
-      </c>
-      <c r="C130" t="s">
-        <v>38</v>
-      </c>
-      <c r="D130">
-        <v>119.12</v>
-      </c>
-      <c r="E130">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>39</v>
-      </c>
-      <c r="B131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" t="s">
-        <v>38</v>
-      </c>
-      <c r="D131">
-        <v>119.0919</v>
-      </c>
-      <c r="E131">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
-        <v>38</v>
-      </c>
-      <c r="D132">
-        <v>119.1425</v>
-      </c>
-      <c r="E132">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>42</v>
-      </c>
-      <c r="B133" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133">
-        <v>119.1614</v>
-      </c>
-      <c r="E133">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134">
-        <v>119.1939</v>
-      </c>
-      <c r="E134">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>301</v>
-      </c>
-      <c r="B135" t="s">
-        <v>302</v>
-      </c>
-      <c r="C135" t="s">
-        <v>303</v>
-      </c>
-      <c r="D135">
-        <v>116.6305</v>
-      </c>
-      <c r="E135">
-        <v>35.427999999999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>304</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>303</v>
-      </c>
-      <c r="D136">
-        <v>116.5856</v>
-      </c>
-      <c r="E136">
-        <v>35.414400000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>305</v>
-      </c>
-      <c r="B137" t="s">
-        <v>306</v>
-      </c>
-      <c r="C137" t="s">
-        <v>303</v>
-      </c>
-      <c r="D137">
-        <v>116.55459999999999</v>
-      </c>
-      <c r="E137">
-        <v>35.4039</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>307</v>
-      </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
-        <v>308</v>
-      </c>
-      <c r="D138">
-        <v>117.14360000000001</v>
-      </c>
-      <c r="E138">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>309</v>
-      </c>
-      <c r="B139" t="s">
-        <v>310</v>
-      </c>
-      <c r="C139" t="s">
-        <v>308</v>
-      </c>
-      <c r="D139">
-        <v>117.0881</v>
-      </c>
-      <c r="E139">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>311</v>
-      </c>
-      <c r="B140" t="s">
-        <v>312</v>
-      </c>
-      <c r="C140" t="s">
-        <v>308</v>
-      </c>
-      <c r="D140">
-        <v>117.10809999999999</v>
-      </c>
-      <c r="E140">
-        <v>36.175800000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>46</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>47</v>
-      </c>
-      <c r="D141">
-        <v>119.4641</v>
-      </c>
-      <c r="E141">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" t="s">
-        <v>49</v>
-      </c>
-      <c r="C142" t="s">
-        <v>47</v>
-      </c>
-      <c r="D142">
-        <v>119.5198</v>
-      </c>
-      <c r="E142">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>50</v>
-      </c>
-      <c r="B143" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143">
-        <v>119.54</v>
-      </c>
-      <c r="E143">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>52</v>
-      </c>
-      <c r="B144" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144">
-        <v>122.1206</v>
-      </c>
-      <c r="E144">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>313</v>
-      </c>
-      <c r="B145" t="s">
-        <v>314</v>
-      </c>
-      <c r="C145" t="s">
-        <v>54</v>
-      </c>
-      <c r="D145">
-        <v>122.0508</v>
-      </c>
-      <c r="E145">
-        <v>37.532499999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>315</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146">
-        <v>122.1067</v>
-      </c>
-      <c r="E146">
-        <v>37.507199999999997</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>316</v>
-      </c>
-      <c r="B147" t="s">
-        <v>317</v>
-      </c>
-      <c r="C147" t="s">
-        <v>318</v>
-      </c>
-      <c r="D147">
-        <v>118.50190000000001</v>
-      </c>
-      <c r="E147">
-        <v>37.465800000000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>319</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>318</v>
-      </c>
-      <c r="D148">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E148">
-        <v>37.431399999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>320</v>
-      </c>
-      <c r="B149" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" t="s">
-        <v>318</v>
-      </c>
-      <c r="D149">
-        <v>118.5857</v>
-      </c>
-      <c r="E149">
-        <v>37.444200000000002</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>322</v>
-      </c>
-      <c r="B150" t="s">
-        <v>323</v>
-      </c>
-      <c r="C150" t="s">
-        <v>318</v>
-      </c>
-      <c r="D150">
-        <v>118.8192</v>
-      </c>
-      <c r="E150">
-        <v>37.378100000000003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>186</v>
-      </c>
-      <c r="B151" t="s">
-        <v>187</v>
-      </c>
-      <c r="C151" t="s">
-        <v>188</v>
-      </c>
-      <c r="D151">
-        <v>115.42277</v>
-      </c>
-      <c r="E151">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>189</v>
-      </c>
-      <c r="B152" t="s">
-        <v>190</v>
-      </c>
-      <c r="C152" t="s">
-        <v>188</v>
-      </c>
-      <c r="D152">
-        <v>115.474722</v>
-      </c>
-      <c r="E152">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>191</v>
-      </c>
-      <c r="B153" t="s">
-        <v>192</v>
-      </c>
-      <c r="C153" t="s">
-        <v>188</v>
-      </c>
-      <c r="D153">
-        <v>115.455</v>
-      </c>
-      <c r="E153">
-        <v>35.270000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7200,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9757B7-3051-413A-9A29-A9C9BCAB25CE}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A5:E8"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7230,7 +5187,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -7247,7 +5204,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -7264,7 +5221,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -7281,7 +5238,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -7298,7 +5255,7 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
@@ -7315,7 +5272,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -7332,7 +5289,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -7342,6 +5299,74 @@
       </c>
       <c r="E8">
         <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7352,10 +5377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF272F95-9143-4F28-A52A-0A21589FFDC0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A15" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7379,70 +5404,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>116.72</v>
+        <v>117.151</v>
       </c>
       <c r="E2">
-        <v>40.143799999999999</v>
+        <v>39.097000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>116.64400000000001</v>
+        <v>117.193</v>
       </c>
       <c r="E3">
-        <v>40.393700000000003</v>
+        <v>39.173000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>116.23</v>
+        <v>117.145</v>
       </c>
       <c r="E4">
-        <v>40.1952</v>
+        <v>39.165399999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>116.407</v>
+        <v>117.184</v>
       </c>
       <c r="E5">
-        <v>40.003100000000003</v>
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E6">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>117.202</v>
+      </c>
+      <c r="E7">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>117.1837</v>
+      </c>
+      <c r="E8">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E9">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>117.307</v>
+      </c>
+      <c r="E10">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E11">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E12">
+        <v>38.839399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7454,10 +5598,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57616D5-3F8F-402B-8CC8-73EF433870A7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7481,70 +5625,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>116.22499999999999</v>
+        <v>117.764</v>
       </c>
       <c r="E2">
-        <v>39.927900000000001</v>
+        <v>39.158700000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>117.193</v>
+        <v>117.157</v>
       </c>
       <c r="E3">
-        <v>39.173000000000002</v>
+        <v>38.919400000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D4">
-        <v>117.145</v>
+        <v>114.45480000000001</v>
       </c>
       <c r="E4">
-        <v>39.165399999999998</v>
+        <v>38.051299999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>117.184</v>
+        <v>114.6046</v>
       </c>
       <c r="E5">
-        <v>39.1205</v>
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E6">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>114.4586111</v>
+      </c>
+      <c r="E7">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>114.5330556</v>
+      </c>
+      <c r="E8">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>114.5214</v>
+      </c>
+      <c r="E9">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>114.3541</v>
+      </c>
+      <c r="E10">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>117.685</v>
+      </c>
+      <c r="E11">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>117.6789</v>
+      </c>
+      <c r="E12">
+        <v>36.228900000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7555,10 +5818,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E97726-3B6B-4953-8B8F-8C916D9F84A4}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7585,87 +5848,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>117.23699999999999</v>
+        <v>119.52589999999999</v>
       </c>
       <c r="E2">
-        <v>39.108199999999997</v>
+        <v>39.828299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>117.202</v>
+        <v>119.7624</v>
       </c>
       <c r="E3">
-        <v>39.092700000000001</v>
+        <v>40.018099999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D4">
-        <v>117.1837</v>
+        <v>119.6023</v>
       </c>
       <c r="E4">
-        <v>39.213299999999997</v>
+        <v>39.956699999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D5">
-        <v>117.26900000000001</v>
+        <v>119.607</v>
       </c>
       <c r="E5">
-        <v>39.133699999999997</v>
+        <v>39.9358</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D6">
-        <v>117.307</v>
+        <v>119.5369</v>
       </c>
       <c r="E6">
-        <v>39.087699999999998</v>
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>114.5129</v>
+      </c>
+      <c r="E7">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E8">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9">
+        <v>114.5035</v>
+      </c>
+      <c r="E9">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10">
+        <v>114.4965</v>
+      </c>
+      <c r="E10">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E11">
+        <v>39.927900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7676,10 +6024,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0715DF9F-AC33-4DE8-A166-E2729AA867E2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7706,87 +6054,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>117.70699999999999</v>
+        <v>120.66589999999999</v>
       </c>
       <c r="E2">
-        <v>39.034300000000002</v>
+        <v>36.240299999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D3">
-        <v>117.45699999999999</v>
+        <v>120.3905</v>
       </c>
       <c r="E3">
-        <v>38.839399999999998</v>
+        <v>36.185099999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D4">
-        <v>117.401</v>
+        <v>120.3471</v>
       </c>
       <c r="E4">
-        <v>39.124000000000002</v>
+        <v>36.069899999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D5">
-        <v>117.764</v>
+        <v>120.4134</v>
       </c>
       <c r="E5">
-        <v>39.158700000000003</v>
+        <v>36.065399999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D6">
-        <v>117.151</v>
+        <v>120.3664</v>
       </c>
       <c r="E6">
-        <v>39.097000000000001</v>
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>120.2992</v>
+      </c>
+      <c r="E7">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E8">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>120.1964</v>
+      </c>
+      <c r="E9">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E10">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>117.715</v>
+      </c>
+      <c r="E11">
+        <v>36.208100000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7796,6 +6229,2627 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
+  <dimension ref="A1:E153"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E99" sqref="A97:E99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>117.151</v>
+      </c>
+      <c r="E14">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>117.193</v>
+      </c>
+      <c r="E15">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>117.145</v>
+      </c>
+      <c r="E16">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>117.184</v>
+      </c>
+      <c r="E17">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E18">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>117.202</v>
+      </c>
+      <c r="E19">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>117.1837</v>
+      </c>
+      <c r="E20">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E21">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>117.307</v>
+      </c>
+      <c r="E22">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E23">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>117.401</v>
+      </c>
+      <c r="E25">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.764</v>
+      </c>
+      <c r="E26">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>117.157</v>
+      </c>
+      <c r="E27">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E28">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29">
+        <v>114.6046</v>
+      </c>
+      <c r="E29">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E30">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <v>114.4586111</v>
+      </c>
+      <c r="E31">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32">
+        <v>114.5330556</v>
+      </c>
+      <c r="E32">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33">
+        <v>114.5214</v>
+      </c>
+      <c r="E33">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>114.3541</v>
+      </c>
+      <c r="E34">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35">
+        <v>118.1662</v>
+      </c>
+      <c r="E35">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E36">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37">
+        <v>118.1853</v>
+      </c>
+      <c r="E37">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E38">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E39">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E40">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E41">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42">
+        <v>119.7624</v>
+      </c>
+      <c r="E42">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43">
+        <v>119.6023</v>
+      </c>
+      <c r="E43">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44">
+        <v>119.607</v>
+      </c>
+      <c r="E44">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45">
+        <v>119.5369</v>
+      </c>
+      <c r="E45">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46">
+        <v>114.5129</v>
+      </c>
+      <c r="E46">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E47">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48">
+        <v>114.5035</v>
+      </c>
+      <c r="E48">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49">
+        <v>114.4965</v>
+      </c>
+      <c r="E49">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E50">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51">
+        <v>115.5223</v>
+      </c>
+      <c r="E51">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52">
+        <v>115.4713</v>
+      </c>
+      <c r="E52">
+        <v>38.910800000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E53">
+        <v>38.8416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E54">
+        <v>38.875599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55">
+        <v>115.5214</v>
+      </c>
+      <c r="E55">
+        <v>38.870699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>114.8985</v>
+      </c>
+      <c r="E56">
+        <v>40.8367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>114.892</v>
+      </c>
+      <c r="E57">
+        <v>40.794809999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>114.8814</v>
+      </c>
+      <c r="E58">
+        <v>40.811500000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>114.9032</v>
+      </c>
+      <c r="E59">
+        <v>40.768799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>114.904</v>
+      </c>
+      <c r="E60">
+        <v>40.872500000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E61">
+        <v>40.9161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62">
+        <v>117.9525</v>
+      </c>
+      <c r="E62">
+        <v>40.984299999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E63">
+        <v>40.935899999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>117.8184</v>
+      </c>
+      <c r="E64">
+        <v>40.973300000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65">
+        <v>117.9384</v>
+      </c>
+      <c r="E65">
+        <v>41.011200000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E66">
+        <v>39.517800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E67">
+        <v>39.5747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68">
+        <v>116.715</v>
+      </c>
+      <c r="E68">
+        <v>39.557099999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E69">
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70">
+        <v>116.8854</v>
+      </c>
+      <c r="E70">
+        <v>38.299100000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71">
+        <v>116.8584</v>
+      </c>
+      <c r="E71">
+        <v>38.325400000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E72">
+        <v>38.322800000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73">
+        <v>115.6951</v>
+      </c>
+      <c r="E73">
+        <v>37.7575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74">
+        <v>115.6426</v>
+      </c>
+      <c r="E74">
+        <v>37.737900000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75">
+        <v>115.6906</v>
+      </c>
+      <c r="E75">
+        <v>37.738999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76">
+        <v>114.4821</v>
+      </c>
+      <c r="E76">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77">
+        <v>114.5261</v>
+      </c>
+      <c r="E77">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78">
+        <v>114.5331</v>
+      </c>
+      <c r="E78">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79">
+        <v>114.4854</v>
+      </c>
+      <c r="E79">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80">
+        <v>116.988</v>
+      </c>
+      <c r="E80">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81">
+        <v>116.93</v>
+      </c>
+      <c r="E81">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82">
+        <v>117.114</v>
+      </c>
+      <c r="E82">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83">
+        <v>116.989</v>
+      </c>
+      <c r="E83">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84">
+        <v>117.0684</v>
+      </c>
+      <c r="E84">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85">
+        <v>116.943</v>
+      </c>
+      <c r="E85">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E86">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E87">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E88">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89">
+        <v>120.3905</v>
+      </c>
+      <c r="E89">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90">
+        <v>120.3471</v>
+      </c>
+      <c r="E90">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91">
+        <v>120.4134</v>
+      </c>
+      <c r="E91">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92">
+        <v>120.3664</v>
+      </c>
+      <c r="E92">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93">
+        <v>120.2992</v>
+      </c>
+      <c r="E93">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E94">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95">
+        <v>120.1964</v>
+      </c>
+      <c r="E95">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E96">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>117.685</v>
+      </c>
+      <c r="E97">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98">
+        <v>117.6789</v>
+      </c>
+      <c r="E98">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>117.715</v>
+      </c>
+      <c r="E99">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E100">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E101">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>118.2764</v>
+      </c>
+      <c r="E102">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>118.4023</v>
+      </c>
+      <c r="E103">
+        <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>252</v>
+      </c>
+      <c r="B104" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104">
+        <v>116.3061</v>
+      </c>
+      <c r="E104">
+        <v>37.4664</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E105">
+        <v>37.450400000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106">
+        <v>116.3189</v>
+      </c>
+      <c r="E106">
+        <v>37.448900000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E107">
+        <v>36.437199999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E108">
+        <v>36.456800000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E109">
+        <v>36.479599999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>267</v>
+      </c>
+      <c r="D110">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E110">
+        <v>37.380299999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111">
+        <v>118.0018</v>
+      </c>
+      <c r="E111">
+        <v>37.361699999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" t="s">
+        <v>271</v>
+      </c>
+      <c r="C112" t="s">
+        <v>267</v>
+      </c>
+      <c r="D112">
+        <v>117.9776</v>
+      </c>
+      <c r="E112">
+        <v>37.393000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E113">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>118.0448</v>
+      </c>
+      <c r="E114">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>117.8477</v>
+      </c>
+      <c r="E115">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E116">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <v>118.3092</v>
+      </c>
+      <c r="E117">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E118">
+        <v>36.804099999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119">
+        <v>117.5564</v>
+      </c>
+      <c r="E119">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120">
+        <v>117.2852</v>
+      </c>
+      <c r="E120">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121">
+        <v>117.5852</v>
+      </c>
+      <c r="E121">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" t="s">
+        <v>288</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122">
+        <v>117.732</v>
+      </c>
+      <c r="E122">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E123">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124">
+        <v>121.2514</v>
+      </c>
+      <c r="E124">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>291</v>
+      </c>
+      <c r="B125" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125">
+        <v>121.3719</v>
+      </c>
+      <c r="E125">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>293</v>
+      </c>
+      <c r="B126" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126">
+        <v>121.3181</v>
+      </c>
+      <c r="E126">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>295</v>
+      </c>
+      <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127">
+        <v>121.4478</v>
+      </c>
+      <c r="E127">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" t="s">
+        <v>290</v>
+      </c>
+      <c r="D128">
+        <v>121.2611</v>
+      </c>
+      <c r="E128">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>299</v>
+      </c>
+      <c r="B129" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E129">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130">
+        <v>119.12</v>
+      </c>
+      <c r="E130">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131">
+        <v>119.0919</v>
+      </c>
+      <c r="E131">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132">
+        <v>119.1425</v>
+      </c>
+      <c r="E132">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133">
+        <v>119.1614</v>
+      </c>
+      <c r="E133">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134">
+        <v>119.1939</v>
+      </c>
+      <c r="E134">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" t="s">
+        <v>302</v>
+      </c>
+      <c r="C135" t="s">
+        <v>303</v>
+      </c>
+      <c r="D135">
+        <v>116.6305</v>
+      </c>
+      <c r="E135">
+        <v>35.427999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>304</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>303</v>
+      </c>
+      <c r="D136">
+        <v>116.5856</v>
+      </c>
+      <c r="E136">
+        <v>35.414400000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" t="s">
+        <v>303</v>
+      </c>
+      <c r="D137">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E137">
+        <v>35.4039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>307</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>308</v>
+      </c>
+      <c r="D138">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E138">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>309</v>
+      </c>
+      <c r="B139" t="s">
+        <v>310</v>
+      </c>
+      <c r="C139" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139">
+        <v>117.0881</v>
+      </c>
+      <c r="E139">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" t="s">
+        <v>308</v>
+      </c>
+      <c r="D140">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E140">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141">
+        <v>119.4641</v>
+      </c>
+      <c r="E141">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142">
+        <v>119.5198</v>
+      </c>
+      <c r="E142">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143">
+        <v>119.54</v>
+      </c>
+      <c r="E143">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144">
+        <v>122.1206</v>
+      </c>
+      <c r="E144">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>313</v>
+      </c>
+      <c r="B145" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145">
+        <v>122.0508</v>
+      </c>
+      <c r="E145">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146">
+        <v>122.1067</v>
+      </c>
+      <c r="E146">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" t="s">
+        <v>318</v>
+      </c>
+      <c r="D147">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E147">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>319</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>318</v>
+      </c>
+      <c r="D148">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E148">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>320</v>
+      </c>
+      <c r="B149" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149">
+        <v>118.5857</v>
+      </c>
+      <c r="E149">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
+        <v>318</v>
+      </c>
+      <c r="D150">
+        <v>118.8192</v>
+      </c>
+      <c r="E150">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" t="s">
+        <v>187</v>
+      </c>
+      <c r="C151" t="s">
+        <v>188</v>
+      </c>
+      <c r="D151">
+        <v>115.42277</v>
+      </c>
+      <c r="E151">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" t="s">
+        <v>188</v>
+      </c>
+      <c r="D152">
+        <v>115.474722</v>
+      </c>
+      <c r="E152">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" t="s">
+        <v>188</v>
+      </c>
+      <c r="D153">
+        <v>115.455</v>
+      </c>
+      <c r="E153">
+        <v>35.270000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DF1534-4DB5-4C30-BED1-8E06F87ED8BE}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7947,7 +9001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -8406,463 +9460,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E2">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3">
-        <v>114.6046</v>
-      </c>
-      <c r="E3">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E4">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>114.4586111</v>
-      </c>
-      <c r="E5">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>114.5330556</v>
-      </c>
-      <c r="E6">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>114.5214</v>
-      </c>
-      <c r="E7">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8">
-        <v>114.3541</v>
-      </c>
-      <c r="E8">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9">
-        <v>118.1662</v>
-      </c>
-      <c r="E9">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E10">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11">
-        <v>118.1853</v>
-      </c>
-      <c r="E11">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E12">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E13">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E14">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E15">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16">
-        <v>119.7624</v>
-      </c>
-      <c r="E16">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17">
-        <v>119.6023</v>
-      </c>
-      <c r="E17">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18">
-        <v>119.607</v>
-      </c>
-      <c r="E18">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19">
-        <v>119.5369</v>
-      </c>
-      <c r="E19">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20">
-        <v>114.5129</v>
-      </c>
-      <c r="E20">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E21">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22">
-        <v>114.5035</v>
-      </c>
-      <c r="E22">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23">
-        <v>114.4965</v>
-      </c>
-      <c r="E23">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.863199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25">
-        <v>115.5223</v>
-      </c>
-      <c r="E25">
-        <v>38.895699999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.157</v>
-      </c>
-      <c r="E26">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE541C34-2F2D-4AF5-947D-19F964CC2EAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1481C-85AC-4712-B410-30A68DE26F7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4P1" sheetId="11" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="350">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1121,6 +1121,10 @@
   </si>
   <si>
     <t>市监测中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,8 +1168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6026,7 +6031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0715DF9F-AC33-4DE8-A166-E2729AA867E2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -6230,10 +6235,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E99" sqref="A97:E99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6241,7 +6246,7 @@
     <col min="2" max="2" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6257,8 +6262,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -6274,8 +6282,11 @@
       <c r="E2">
         <v>39.8673</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -6291,8 +6302,11 @@
       <c r="E3">
         <v>40.286499999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -6308,8 +6322,11 @@
       <c r="E4">
         <v>39.952199999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -6325,8 +6342,11 @@
       <c r="E5">
         <v>39.874499999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -6342,8 +6362,11 @@
       <c r="E6">
         <v>39.971600000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -6359,8 +6382,11 @@
       <c r="E7">
         <v>39.942500000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -6376,8 +6402,11 @@
       <c r="E8">
         <v>39.993400000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -6393,8 +6422,11 @@
       <c r="E9">
         <v>40.143799999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -6410,8 +6442,11 @@
       <c r="E10">
         <v>40.393700000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -6427,8 +6462,11 @@
       <c r="E11">
         <v>40.1952</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -6444,8 +6482,11 @@
       <c r="E12">
         <v>40.003100000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -6461,8 +6502,11 @@
       <c r="E13">
         <v>39.927900000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -6478,8 +6522,11 @@
       <c r="E14">
         <v>39.097000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -6495,8 +6542,11 @@
       <c r="E15">
         <v>39.173000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -6512,8 +6562,11 @@
       <c r="E16">
         <v>39.165399999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -6529,8 +6582,11 @@
       <c r="E17">
         <v>39.1205</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -6546,8 +6602,11 @@
       <c r="E18">
         <v>39.108199999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -6563,8 +6622,11 @@
       <c r="E19">
         <v>39.092700000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -6580,8 +6642,11 @@
       <c r="E20">
         <v>39.213299999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -6597,8 +6662,11 @@
       <c r="E21">
         <v>39.133699999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -6614,8 +6682,11 @@
       <c r="E22">
         <v>39.087699999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -6631,8 +6702,11 @@
       <c r="E23">
         <v>39.034300000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -6648,8 +6722,11 @@
       <c r="E24">
         <v>38.839399999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -6665,8 +6742,11 @@
       <c r="E25">
         <v>39.124000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -6682,8 +6762,11 @@
       <c r="E26">
         <v>39.158700000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -6699,8 +6782,11 @@
       <c r="E27">
         <v>38.919400000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -6716,8 +6802,11 @@
       <c r="E28">
         <v>38.051299999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -6733,8 +6822,11 @@
       <c r="E29">
         <v>38.0398</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -6750,8 +6842,11 @@
       <c r="E30">
         <v>38.139800000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -6767,8 +6862,11 @@
       <c r="E31">
         <v>38.005833330000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -6784,8 +6882,11 @@
       <c r="E32">
         <v>38.017777780000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -6801,8 +6902,11 @@
       <c r="E33">
         <v>38.052399999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -6818,8 +6922,11 @@
       <c r="E34">
         <v>37.909700000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -6835,8 +6942,11 @@
       <c r="E35">
         <v>39.630800000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -6852,8 +6962,11 @@
       <c r="E36">
         <v>39.643000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -6869,8 +6982,11 @@
       <c r="E37">
         <v>39.640700000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -6886,8 +7002,11 @@
       <c r="E38">
         <v>39.667900000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -6903,8 +7022,11 @@
       <c r="E39">
         <v>39.657820000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -6920,8 +7042,11 @@
       <c r="E40">
         <v>39.6295</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -6937,8 +7062,11 @@
       <c r="E41">
         <v>39.828299999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -6954,8 +7082,11 @@
       <c r="E42">
         <v>40.018099999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -6971,8 +7102,11 @@
       <c r="E43">
         <v>39.956699999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -6988,8 +7122,11 @@
       <c r="E44">
         <v>39.9358</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -7005,8 +7142,11 @@
       <c r="E45">
         <v>39.941899999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -7022,8 +7162,11 @@
       <c r="E46">
         <v>36.617629999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>220</v>
       </c>
@@ -7039,8 +7182,11 @@
       <c r="E47">
         <v>36.616399999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -7056,8 +7202,11 @@
       <c r="E48">
         <v>36.577599999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -7073,8 +7222,11 @@
       <c r="E49">
         <v>36.619810000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>226</v>
       </c>
@@ -7090,8 +7242,11 @@
       <c r="E50">
         <v>38.863199999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>229</v>
       </c>
@@ -7107,8 +7262,11 @@
       <c r="E51">
         <v>38.895699999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -7124,8 +7282,11 @@
       <c r="E52">
         <v>38.910800000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -7141,8 +7302,11 @@
       <c r="E53">
         <v>38.8416</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -7158,8 +7322,11 @@
       <c r="E54">
         <v>38.875599999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>237</v>
       </c>
@@ -7175,8 +7342,11 @@
       <c r="E55">
         <v>38.870699999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -7192,8 +7362,11 @@
       <c r="E56">
         <v>40.8367</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -7209,8 +7382,11 @@
       <c r="E57">
         <v>40.794809999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -7226,8 +7402,11 @@
       <c r="E58">
         <v>40.811500000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -7243,8 +7422,11 @@
       <c r="E59">
         <v>40.768799999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -7260,8 +7442,11 @@
       <c r="E60">
         <v>40.872500000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -7277,8 +7462,11 @@
       <c r="E61">
         <v>40.9161</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -7294,8 +7482,11 @@
       <c r="E62">
         <v>40.984299999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>134</v>
       </c>
@@ -7311,8 +7502,11 @@
       <c r="E63">
         <v>40.935899999999997</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -7328,8 +7522,11 @@
       <c r="E64">
         <v>40.973300000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -7345,8 +7542,11 @@
       <c r="E65">
         <v>41.011200000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -7362,8 +7562,11 @@
       <c r="E66">
         <v>39.517800000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>241</v>
       </c>
@@ -7379,8 +7582,11 @@
       <c r="E67">
         <v>39.5747</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -7396,8 +7602,11 @@
       <c r="E68">
         <v>39.557099999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>244</v>
       </c>
@@ -7413,8 +7622,11 @@
       <c r="E69">
         <v>39.534300000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -7430,8 +7642,11 @@
       <c r="E70">
         <v>38.299100000000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -7447,8 +7662,11 @@
       <c r="E71">
         <v>38.325400000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>246</v>
       </c>
@@ -7464,8 +7682,11 @@
       <c r="E72">
         <v>38.322800000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>247</v>
       </c>
@@ -7481,8 +7702,11 @@
       <c r="E73">
         <v>37.7575</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>250</v>
       </c>
@@ -7498,8 +7722,11 @@
       <c r="E74">
         <v>37.737900000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>251</v>
       </c>
@@ -7515,8 +7742,11 @@
       <c r="E75">
         <v>37.738999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -7532,8 +7762,11 @@
       <c r="E76">
         <v>37.096699999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>147</v>
       </c>
@@ -7549,8 +7782,11 @@
       <c r="E77">
         <v>37.0533</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -7566,8 +7802,11 @@
       <c r="E78">
         <v>37.096400000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -7583,8 +7822,11 @@
       <c r="E79">
         <v>37.061999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -7600,8 +7842,11 @@
       <c r="E80">
         <v>36.611400000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -7617,8 +7862,11 @@
       <c r="E81">
         <v>36.67</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>157</v>
       </c>
@@ -7634,8 +7882,11 @@
       <c r="E82">
         <v>36.673900000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -7651,8 +7902,11 @@
       <c r="E83">
         <v>36.687199999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -7668,8 +7922,11 @@
       <c r="E84">
         <v>36.686799999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -7685,8 +7942,11 @@
       <c r="E85">
         <v>36.648899999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -7702,8 +7962,11 @@
       <c r="E86">
         <v>36.662199999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -7719,8 +7982,11 @@
       <c r="E87">
         <v>36.5336</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -7736,8 +8002,11 @@
       <c r="E88">
         <v>36.240299999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>170</v>
       </c>
@@ -7753,8 +8022,11 @@
       <c r="E89">
         <v>36.185099999999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -7770,8 +8042,11 @@
       <c r="E90">
         <v>36.069899999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -7787,8 +8062,11 @@
       <c r="E91">
         <v>36.065399999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -7804,8 +8082,11 @@
       <c r="E92">
         <v>36.103200000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -7821,8 +8102,11 @@
       <c r="E93">
         <v>36.054299999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>180</v>
       </c>
@@ -7838,8 +8122,11 @@
       <c r="E94">
         <v>36.085099999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>182</v>
       </c>
@@ -7855,8 +8142,11 @@
       <c r="E95">
         <v>36.308300000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -7872,8 +8162,11 @@
       <c r="E96">
         <v>36.240299999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -7889,8 +8182,11 @@
       <c r="E97">
         <v>36.204999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -7906,8 +8202,11 @@
       <c r="E98">
         <v>36.228900000000003</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -7923,8 +8222,11 @@
       <c r="E99">
         <v>36.208100000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -7940,8 +8242,11 @@
       <c r="E100">
         <v>35.057299999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -7957,8 +8262,11 @@
       <c r="E101">
         <v>35.062199999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -7974,8 +8282,11 @@
       <c r="E102">
         <v>34.981699999999996</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -7991,8 +8302,11 @@
       <c r="E103">
         <v>35.089599999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>252</v>
       </c>
@@ -8008,8 +8322,11 @@
       <c r="E104">
         <v>37.4664</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>255</v>
       </c>
@@ -8025,8 +8342,11 @@
       <c r="E105">
         <v>37.450400000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>257</v>
       </c>
@@ -8042,8 +8362,11 @@
       <c r="E106">
         <v>37.448900000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>259</v>
       </c>
@@ -8059,8 +8382,11 @@
       <c r="E107">
         <v>36.437199999999997</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>262</v>
       </c>
@@ -8076,8 +8402,11 @@
       <c r="E108">
         <v>36.456800000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>264</v>
       </c>
@@ -8093,8 +8422,11 @@
       <c r="E109">
         <v>36.479599999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>266</v>
       </c>
@@ -8110,8 +8442,11 @@
       <c r="E110">
         <v>37.380299999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>268</v>
       </c>
@@ -8127,8 +8462,11 @@
       <c r="E111">
         <v>37.361699999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>270</v>
       </c>
@@ -8144,8 +8482,11 @@
       <c r="E112">
         <v>37.393000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>272</v>
       </c>
@@ -8161,8 +8502,11 @@
       <c r="E113">
         <v>36.808799999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>273</v>
       </c>
@@ -8178,8 +8522,11 @@
       <c r="E114">
         <v>36.838000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -8195,8 +8542,11 @@
       <c r="E115">
         <v>36.497</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>275</v>
       </c>
@@ -8212,8 +8562,11 @@
       <c r="E116">
         <v>36.637700000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -8229,8 +8582,11 @@
       <c r="E117">
         <v>36.819800000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>279</v>
       </c>
@@ -8246,8 +8602,11 @@
       <c r="E118">
         <v>36.804099999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>281</v>
       </c>
@@ -8263,8 +8622,11 @@
       <c r="E119">
         <v>34.863999999999997</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -8280,8 +8642,11 @@
       <c r="E120">
         <v>34.783700000000003</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>285</v>
       </c>
@@ -8297,8 +8662,11 @@
       <c r="E121">
         <v>34.774500000000003</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>287</v>
       </c>
@@ -8314,8 +8682,11 @@
       <c r="E122">
         <v>34.566699999999997</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -8331,8 +8702,11 @@
       <c r="E123">
         <v>35.099200000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>289</v>
       </c>
@@ -8348,8 +8722,11 @@
       <c r="E124">
         <v>37.563899999999997</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>291</v>
       </c>
@@ -8365,8 +8742,11 @@
       <c r="E125">
         <v>37.543300000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>293</v>
       </c>
@@ -8382,8 +8762,11 @@
       <c r="E126">
         <v>37.543599999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -8399,8 +8782,11 @@
       <c r="E127">
         <v>37.482199999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -8416,8 +8802,11 @@
       <c r="E128">
         <v>37.496699999999997</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>299</v>
       </c>
@@ -8433,8 +8822,11 @@
       <c r="E129">
         <v>37.3872</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -8450,8 +8842,11 @@
       <c r="E130">
         <v>36.701900000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -8467,8 +8862,11 @@
       <c r="E131">
         <v>36.730600000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -8484,8 +8882,11 @@
       <c r="E132">
         <v>36.700800000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -8501,8 +8902,11 @@
       <c r="E133">
         <v>36.657200000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>44</v>
       </c>
@@ -8518,8 +8922,11 @@
       <c r="E134">
         <v>36.773099999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -8535,8 +8942,11 @@
       <c r="E135">
         <v>35.427999999999997</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -8552,8 +8962,11 @@
       <c r="E136">
         <v>35.414400000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>305</v>
       </c>
@@ -8569,8 +8982,11 @@
       <c r="E137">
         <v>35.4039</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -8586,8 +9002,11 @@
       <c r="E138">
         <v>36.194200000000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>309</v>
       </c>
@@ -8603,8 +9022,11 @@
       <c r="E139">
         <v>36.194200000000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>311</v>
       </c>
@@ -8620,8 +9042,11 @@
       <c r="E140">
         <v>36.175800000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>46</v>
       </c>
@@ -8637,8 +9062,11 @@
       <c r="E141">
         <v>35.4178</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>48</v>
       </c>
@@ -8654,8 +9082,11 @@
       <c r="E142">
         <v>35.423400000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -8671,8 +9102,11 @@
       <c r="E143">
         <v>35.3962</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>52</v>
       </c>
@@ -8688,8 +9122,11 @@
       <c r="E144">
         <v>37.429400000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>313</v>
       </c>
@@ -8705,8 +9142,11 @@
       <c r="E145">
         <v>37.532499999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -8722,8 +9162,11 @@
       <c r="E146">
         <v>37.507199999999997</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>316</v>
       </c>
@@ -8739,8 +9182,11 @@
       <c r="E147">
         <v>37.465800000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>319</v>
       </c>
@@ -8756,8 +9202,11 @@
       <c r="E148">
         <v>37.431399999999996</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>320</v>
       </c>
@@ -8773,8 +9222,11 @@
       <c r="E149">
         <v>37.444200000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>322</v>
       </c>
@@ -8790,8 +9242,11 @@
       <c r="E150">
         <v>37.378100000000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>186</v>
       </c>
@@ -8807,8 +9262,11 @@
       <c r="E151">
         <v>35.248888999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>189</v>
       </c>
@@ -8824,8 +9282,11 @@
       <c r="E152">
         <v>35.237499999999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -8840,6 +9301,9 @@
       </c>
       <c r="E153">
         <v>35.270000000000003</v>
+      </c>
+      <c r="F153" s="1">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -1,41 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1481C-85AC-4712-B410-30A68DE26F7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E24AB-1E9D-4740-9CBB-C48D6267106B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="V4P1" sheetId="11" r:id="rId1"/>
-    <sheet name="V4P2" sheetId="12" r:id="rId2"/>
-    <sheet name="V4P3" sheetId="17" r:id="rId3"/>
-    <sheet name="V4P4" sheetId="18" r:id="rId4"/>
-    <sheet name="V4P5" sheetId="15" r:id="rId5"/>
-    <sheet name="V4P6" sheetId="16" r:id="rId6"/>
-    <sheet name="station152" sheetId="6" r:id="rId7"/>
-    <sheet name="ERROR" sheetId="13" r:id="rId8"/>
-    <sheet name="样例1" sheetId="1" r:id="rId9"/>
-    <sheet name="样例2" sheetId="2" r:id="rId10"/>
-    <sheet name="样例4" sheetId="4" r:id="rId11"/>
-    <sheet name="样例3" sheetId="3" r:id="rId12"/>
-    <sheet name="样例5" sheetId="5" r:id="rId13"/>
-    <sheet name="样例6" sheetId="7" r:id="rId14"/>
-    <sheet name="缺失152-86" sheetId="10" r:id="rId15"/>
+    <sheet name="北京6" sheetId="27" r:id="rId1"/>
+    <sheet name="北京5" sheetId="26" r:id="rId2"/>
+    <sheet name="北京4" sheetId="25" r:id="rId3"/>
+    <sheet name="北京3" sheetId="24" r:id="rId4"/>
+    <sheet name="北京2" sheetId="23" r:id="rId5"/>
+    <sheet name="北京1" sheetId="22" r:id="rId6"/>
+    <sheet name="V4P1" sheetId="11" r:id="rId7"/>
+    <sheet name="V4P2" sheetId="12" r:id="rId8"/>
+    <sheet name="V4P3" sheetId="17" r:id="rId9"/>
+    <sheet name="V4P4" sheetId="18" r:id="rId10"/>
+    <sheet name="V4P5" sheetId="15" r:id="rId11"/>
+    <sheet name="V4P6" sheetId="16" r:id="rId12"/>
+    <sheet name="station152" sheetId="6" r:id="rId13"/>
+    <sheet name="ERROR" sheetId="13" r:id="rId14"/>
+    <sheet name="样例1" sheetId="1" r:id="rId15"/>
+    <sheet name="样例2" sheetId="2" r:id="rId16"/>
+    <sheet name="样例4" sheetId="4" r:id="rId17"/>
+    <sheet name="样例3" sheetId="3" r:id="rId18"/>
+    <sheet name="样例5" sheetId="5" r:id="rId19"/>
+    <sheet name="样例6" sheetId="7" r:id="rId20"/>
+    <sheet name="缺失152-86" sheetId="10" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">样例2!$D$1:$E$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">样例3!$D$1:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">样例4!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">样例5!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">样例2!$D$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">样例3!$D$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">样例4!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">样例5!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="350">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1450,14 +1456,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35975FBF-B5E0-4A2A-9935-8FE26E5628E7}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FCED5E-0A7A-4A0A-B96A-237803DCFA4A}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1478,189 +1485,3751 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>118.34180000000001</v>
+        <v>116.407</v>
       </c>
       <c r="E2">
-        <v>35.057299999999998</v>
+        <v>40.003100000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>118.29389999999999</v>
+        <v>116.22499999999999</v>
       </c>
       <c r="E3">
-        <v>35.062199999999997</v>
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57616D5-3F8F-402B-8CC8-73EF433870A7}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.764</v>
+      </c>
+      <c r="E2">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.157</v>
+      </c>
+      <c r="E3">
+        <v>38.919400000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="D4">
-        <v>115.49299999999999</v>
+        <v>114.45480000000001</v>
       </c>
       <c r="E4">
-        <v>38.863199999999999</v>
+        <v>38.051299999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>115.5223</v>
+        <v>114.6046</v>
       </c>
       <c r="E5">
-        <v>38.895699999999998</v>
+        <v>38.0398</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>118.1662</v>
+        <v>114.50190000000001</v>
       </c>
       <c r="E6">
-        <v>39.630800000000001</v>
+        <v>38.139800000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D7">
-        <v>118.14400000000001</v>
+        <v>114.4586111</v>
       </c>
       <c r="E7">
-        <v>39.643000000000001</v>
+        <v>38.005833330000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D8">
-        <v>118.1853</v>
+        <v>114.5330556</v>
       </c>
       <c r="E8">
-        <v>39.640700000000002</v>
+        <v>38.017777780000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>118.21850000000001</v>
+        <v>114.5214</v>
       </c>
       <c r="E9">
-        <v>39.667900000000003</v>
+        <v>38.052399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>118.18380000000001</v>
+        <v>114.3541</v>
       </c>
       <c r="E10">
-        <v>39.657820000000001</v>
+        <v>37.909700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>118.19970000000001</v>
+        <v>117.685</v>
       </c>
       <c r="E11">
-        <v>39.6295</v>
+        <v>36.204999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>117.6789</v>
+      </c>
+      <c r="E12">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E97726-3B6B-4953-8B8F-8C916D9F84A4}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E2">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>119.7624</v>
+      </c>
+      <c r="E3">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>119.6023</v>
+      </c>
+      <c r="E4">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <v>119.607</v>
+      </c>
+      <c r="E5">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>119.5369</v>
+      </c>
+      <c r="E6">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>114.5129</v>
+      </c>
+      <c r="E7">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E8">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9">
+        <v>114.5035</v>
+      </c>
+      <c r="E9">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10">
+        <v>114.4965</v>
+      </c>
+      <c r="E10">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E11">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0715DF9F-AC33-4DE8-A166-E2729AA867E2}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E2">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3">
+        <v>120.3905</v>
+      </c>
+      <c r="E3">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>120.3471</v>
+      </c>
+      <c r="E4">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5">
+        <v>120.4134</v>
+      </c>
+      <c r="E5">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>120.3664</v>
+      </c>
+      <c r="E6">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>120.2992</v>
+      </c>
+      <c r="E7">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E8">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>120.1964</v>
+      </c>
+      <c r="E9">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E10">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>117.715</v>
+      </c>
+      <c r="E11">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>117.151</v>
+      </c>
+      <c r="E14">
+        <v>39.097000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>117.193</v>
+      </c>
+      <c r="E15">
+        <v>39.173000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>117.145</v>
+      </c>
+      <c r="E16">
+        <v>39.165399999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>117.184</v>
+      </c>
+      <c r="E17">
+        <v>39.1205</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E18">
+        <v>39.108199999999997</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>117.202</v>
+      </c>
+      <c r="E19">
+        <v>39.092700000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>117.1837</v>
+      </c>
+      <c r="E20">
+        <v>39.213299999999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E21">
+        <v>39.133699999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>117.307</v>
+      </c>
+      <c r="E22">
+        <v>39.087699999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E23">
+        <v>39.034300000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.839399999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>102</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D25">
         <v>117.401</v>
       </c>
-      <c r="E12">
+      <c r="E25">
         <v>39.124000000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.764</v>
+      </c>
+      <c r="E26">
+        <v>39.158700000000003</v>
+      </c>
+      <c r="F26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>117.157</v>
+      </c>
+      <c r="E27">
+        <v>38.919400000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E28">
+        <v>38.051299999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29">
+        <v>114.6046</v>
+      </c>
+      <c r="E29">
+        <v>38.0398</v>
+      </c>
+      <c r="F29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E30">
+        <v>38.139800000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <v>114.4586111</v>
+      </c>
+      <c r="E31">
+        <v>38.005833330000002</v>
+      </c>
+      <c r="F31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32">
+        <v>114.5330556</v>
+      </c>
+      <c r="E32">
+        <v>38.017777780000003</v>
+      </c>
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33">
+        <v>114.5214</v>
+      </c>
+      <c r="E33">
+        <v>38.052399999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>114.3541</v>
+      </c>
+      <c r="E34">
+        <v>37.909700000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35">
+        <v>118.1662</v>
+      </c>
+      <c r="E35">
+        <v>39.630800000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E36">
+        <v>39.643000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37">
+        <v>118.1853</v>
+      </c>
+      <c r="E37">
+        <v>39.640700000000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E38">
+        <v>39.667900000000003</v>
+      </c>
+      <c r="F38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E39">
+        <v>39.657820000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E40">
+        <v>39.6295</v>
+      </c>
+      <c r="F40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E41">
+        <v>39.828299999999999</v>
+      </c>
+      <c r="F41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42">
+        <v>119.7624</v>
+      </c>
+      <c r="E42">
+        <v>40.018099999999997</v>
+      </c>
+      <c r="F42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43">
+        <v>119.6023</v>
+      </c>
+      <c r="E43">
+        <v>39.956699999999998</v>
+      </c>
+      <c r="F43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44">
+        <v>119.607</v>
+      </c>
+      <c r="E44">
+        <v>39.9358</v>
+      </c>
+      <c r="F44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45">
+        <v>119.5369</v>
+      </c>
+      <c r="E45">
+        <v>39.941899999999997</v>
+      </c>
+      <c r="F45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46">
+        <v>114.5129</v>
+      </c>
+      <c r="E46">
+        <v>36.617629999999998</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E47">
+        <v>36.616399999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48">
+        <v>114.5035</v>
+      </c>
+      <c r="E48">
+        <v>36.577599999999997</v>
+      </c>
+      <c r="F48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49">
+        <v>114.4965</v>
+      </c>
+      <c r="E49">
+        <v>36.619810000000001</v>
+      </c>
+      <c r="F49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E50">
+        <v>38.863199999999999</v>
+      </c>
+      <c r="F50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51">
+        <v>115.5223</v>
+      </c>
+      <c r="E51">
+        <v>38.895699999999998</v>
+      </c>
+      <c r="F51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52">
+        <v>115.4713</v>
+      </c>
+      <c r="E52">
+        <v>38.910800000000002</v>
+      </c>
+      <c r="F52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E53">
+        <v>38.8416</v>
+      </c>
+      <c r="F53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E54">
+        <v>38.875599999999999</v>
+      </c>
+      <c r="F54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55">
+        <v>115.5214</v>
+      </c>
+      <c r="E55">
+        <v>38.870699999999999</v>
+      </c>
+      <c r="F55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>114.8985</v>
+      </c>
+      <c r="E56">
+        <v>40.8367</v>
+      </c>
+      <c r="F56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>114.892</v>
+      </c>
+      <c r="E57">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>114.8814</v>
+      </c>
+      <c r="E58">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>114.9032</v>
+      </c>
+      <c r="E59">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>114.904</v>
+      </c>
+      <c r="E60">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E61">
+        <v>40.9161</v>
+      </c>
+      <c r="F61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62">
+        <v>117.9525</v>
+      </c>
+      <c r="E62">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E63">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>117.8184</v>
+      </c>
+      <c r="E64">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65">
+        <v>117.9384</v>
+      </c>
+      <c r="E65">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E66">
+        <v>39.517800000000001</v>
+      </c>
+      <c r="F66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E67">
+        <v>39.5747</v>
+      </c>
+      <c r="F67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68">
+        <v>116.715</v>
+      </c>
+      <c r="E68">
+        <v>39.557099999999998</v>
+      </c>
+      <c r="F68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E69">
+        <v>39.534300000000002</v>
+      </c>
+      <c r="F69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70">
+        <v>116.8854</v>
+      </c>
+      <c r="E70">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71">
+        <v>116.8584</v>
+      </c>
+      <c r="E71">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E72">
+        <v>38.322800000000001</v>
+      </c>
+      <c r="F72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73">
+        <v>115.6951</v>
+      </c>
+      <c r="E73">
+        <v>37.7575</v>
+      </c>
+      <c r="F73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74">
+        <v>115.6426</v>
+      </c>
+      <c r="E74">
+        <v>37.737900000000003</v>
+      </c>
+      <c r="F74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75">
+        <v>115.6906</v>
+      </c>
+      <c r="E75">
+        <v>37.738999999999997</v>
+      </c>
+      <c r="F75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76">
+        <v>114.4821</v>
+      </c>
+      <c r="E76">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77">
+        <v>114.5261</v>
+      </c>
+      <c r="E77">
+        <v>37.0533</v>
+      </c>
+      <c r="F77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78">
+        <v>114.5331</v>
+      </c>
+      <c r="E78">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79">
+        <v>114.4854</v>
+      </c>
+      <c r="E79">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80">
+        <v>116.988</v>
+      </c>
+      <c r="E80">
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81">
+        <v>116.93</v>
+      </c>
+      <c r="E81">
+        <v>36.67</v>
+      </c>
+      <c r="F81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82">
+        <v>117.114</v>
+      </c>
+      <c r="E82">
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83">
+        <v>116.989</v>
+      </c>
+      <c r="E83">
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84">
+        <v>117.0684</v>
+      </c>
+      <c r="E84">
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85">
+        <v>116.943</v>
+      </c>
+      <c r="E85">
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E86">
+        <v>36.662199999999999</v>
+      </c>
+      <c r="F86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E87">
+        <v>36.5336</v>
+      </c>
+      <c r="F87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E88">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="F88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89">
+        <v>120.3905</v>
+      </c>
+      <c r="E89">
+        <v>36.185099999999998</v>
+      </c>
+      <c r="F89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90">
+        <v>120.3471</v>
+      </c>
+      <c r="E90">
+        <v>36.069899999999997</v>
+      </c>
+      <c r="F90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91">
+        <v>120.4134</v>
+      </c>
+      <c r="E91">
+        <v>36.065399999999997</v>
+      </c>
+      <c r="F91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92">
+        <v>120.3664</v>
+      </c>
+      <c r="E92">
+        <v>36.103200000000001</v>
+      </c>
+      <c r="F92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93">
+        <v>120.2992</v>
+      </c>
+      <c r="E93">
+        <v>36.054299999999998</v>
+      </c>
+      <c r="F93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E94">
+        <v>36.085099999999997</v>
+      </c>
+      <c r="F94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95">
+        <v>120.1964</v>
+      </c>
+      <c r="E95">
+        <v>36.308300000000003</v>
+      </c>
+      <c r="F95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E96">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="F96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>117.685</v>
+      </c>
+      <c r="E97">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98">
+        <v>117.6789</v>
+      </c>
+      <c r="E98">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>117.715</v>
+      </c>
+      <c r="E99">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E100">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E101">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>118.2764</v>
+      </c>
+      <c r="E102">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>118.4023</v>
+      </c>
+      <c r="E103">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F103" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>252</v>
+      </c>
+      <c r="B104" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104">
+        <v>116.3061</v>
+      </c>
+      <c r="E104">
+        <v>37.4664</v>
+      </c>
+      <c r="F104" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E105">
+        <v>37.450400000000002</v>
+      </c>
+      <c r="F105" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106">
+        <v>116.3189</v>
+      </c>
+      <c r="E106">
+        <v>37.448900000000002</v>
+      </c>
+      <c r="F106" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E107">
+        <v>36.437199999999997</v>
+      </c>
+      <c r="F107" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E108">
+        <v>36.456800000000001</v>
+      </c>
+      <c r="F108" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E109">
+        <v>36.479599999999998</v>
+      </c>
+      <c r="F109" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>267</v>
+      </c>
+      <c r="D110">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E110">
+        <v>37.380299999999998</v>
+      </c>
+      <c r="F110" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111">
+        <v>118.0018</v>
+      </c>
+      <c r="E111">
+        <v>37.361699999999999</v>
+      </c>
+      <c r="F111" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" t="s">
+        <v>271</v>
+      </c>
+      <c r="C112" t="s">
+        <v>267</v>
+      </c>
+      <c r="D112">
+        <v>117.9776</v>
+      </c>
+      <c r="E112">
+        <v>37.393000000000001</v>
+      </c>
+      <c r="F112" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E113">
+        <v>36.808799999999998</v>
+      </c>
+      <c r="F113" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>118.0448</v>
+      </c>
+      <c r="E114">
+        <v>36.838000000000001</v>
+      </c>
+      <c r="F114" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>117.8477</v>
+      </c>
+      <c r="E115">
+        <v>36.497</v>
+      </c>
+      <c r="F115" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E116">
+        <v>36.637700000000002</v>
+      </c>
+      <c r="F116" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <v>118.3092</v>
+      </c>
+      <c r="E117">
+        <v>36.819800000000001</v>
+      </c>
+      <c r="F117" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E118">
+        <v>36.804099999999998</v>
+      </c>
+      <c r="F118" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119">
+        <v>117.5564</v>
+      </c>
+      <c r="E119">
+        <v>34.863999999999997</v>
+      </c>
+      <c r="F119" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120">
+        <v>117.2852</v>
+      </c>
+      <c r="E120">
+        <v>34.783700000000003</v>
+      </c>
+      <c r="F120" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121">
+        <v>117.5852</v>
+      </c>
+      <c r="E121">
+        <v>34.774500000000003</v>
+      </c>
+      <c r="F121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" t="s">
+        <v>288</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122">
+        <v>117.732</v>
+      </c>
+      <c r="E122">
+        <v>34.566699999999997</v>
+      </c>
+      <c r="F122" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E123">
+        <v>35.099200000000003</v>
+      </c>
+      <c r="F123" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124">
+        <v>121.2514</v>
+      </c>
+      <c r="E124">
+        <v>37.563899999999997</v>
+      </c>
+      <c r="F124" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>291</v>
+      </c>
+      <c r="B125" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125">
+        <v>121.3719</v>
+      </c>
+      <c r="E125">
+        <v>37.543300000000002</v>
+      </c>
+      <c r="F125" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>293</v>
+      </c>
+      <c r="B126" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126">
+        <v>121.3181</v>
+      </c>
+      <c r="E126">
+        <v>37.543599999999998</v>
+      </c>
+      <c r="F126" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>295</v>
+      </c>
+      <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127">
+        <v>121.4478</v>
+      </c>
+      <c r="E127">
+        <v>37.482199999999999</v>
+      </c>
+      <c r="F127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" t="s">
+        <v>290</v>
+      </c>
+      <c r="D128">
+        <v>121.2611</v>
+      </c>
+      <c r="E128">
+        <v>37.496699999999997</v>
+      </c>
+      <c r="F128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>299</v>
+      </c>
+      <c r="B129" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E129">
+        <v>37.3872</v>
+      </c>
+      <c r="F129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130">
+        <v>119.12</v>
+      </c>
+      <c r="E130">
+        <v>36.701900000000002</v>
+      </c>
+      <c r="F130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131">
+        <v>119.0919</v>
+      </c>
+      <c r="E131">
+        <v>36.730600000000003</v>
+      </c>
+      <c r="F131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132">
+        <v>119.1425</v>
+      </c>
+      <c r="E132">
+        <v>36.700800000000001</v>
+      </c>
+      <c r="F132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133">
+        <v>119.1614</v>
+      </c>
+      <c r="E133">
+        <v>36.657200000000003</v>
+      </c>
+      <c r="F133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134">
+        <v>119.1939</v>
+      </c>
+      <c r="E134">
+        <v>36.773099999999999</v>
+      </c>
+      <c r="F134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" t="s">
+        <v>302</v>
+      </c>
+      <c r="C135" t="s">
+        <v>303</v>
+      </c>
+      <c r="D135">
+        <v>116.6305</v>
+      </c>
+      <c r="E135">
+        <v>35.427999999999997</v>
+      </c>
+      <c r="F135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>304</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>303</v>
+      </c>
+      <c r="D136">
+        <v>116.5856</v>
+      </c>
+      <c r="E136">
+        <v>35.414400000000001</v>
+      </c>
+      <c r="F136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>305</v>
+      </c>
+      <c r="B137" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" t="s">
+        <v>303</v>
+      </c>
+      <c r="D137">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E137">
+        <v>35.4039</v>
+      </c>
+      <c r="F137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>307</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>308</v>
+      </c>
+      <c r="D138">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E138">
+        <v>36.194200000000002</v>
+      </c>
+      <c r="F138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>309</v>
+      </c>
+      <c r="B139" t="s">
+        <v>310</v>
+      </c>
+      <c r="C139" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139">
+        <v>117.0881</v>
+      </c>
+      <c r="E139">
+        <v>36.194200000000002</v>
+      </c>
+      <c r="F139" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" t="s">
+        <v>308</v>
+      </c>
+      <c r="D140">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E140">
+        <v>36.175800000000002</v>
+      </c>
+      <c r="F140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141">
+        <v>119.4641</v>
+      </c>
+      <c r="E141">
+        <v>35.4178</v>
+      </c>
+      <c r="F141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142">
+        <v>119.5198</v>
+      </c>
+      <c r="E142">
+        <v>35.423400000000001</v>
+      </c>
+      <c r="F142" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143">
+        <v>119.54</v>
+      </c>
+      <c r="E143">
+        <v>35.3962</v>
+      </c>
+      <c r="F143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144">
+        <v>122.1206</v>
+      </c>
+      <c r="E144">
+        <v>37.429400000000001</v>
+      </c>
+      <c r="F144" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>313</v>
+      </c>
+      <c r="B145" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145">
+        <v>122.0508</v>
+      </c>
+      <c r="E145">
+        <v>37.532499999999999</v>
+      </c>
+      <c r="F145" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146">
+        <v>122.1067</v>
+      </c>
+      <c r="E146">
+        <v>37.507199999999997</v>
+      </c>
+      <c r="F146" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" t="s">
+        <v>318</v>
+      </c>
+      <c r="D147">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E147">
+        <v>37.465800000000002</v>
+      </c>
+      <c r="F147" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>319</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>318</v>
+      </c>
+      <c r="D148">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E148">
+        <v>37.431399999999996</v>
+      </c>
+      <c r="F148" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>320</v>
+      </c>
+      <c r="B149" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149">
+        <v>118.5857</v>
+      </c>
+      <c r="E149">
+        <v>37.444200000000002</v>
+      </c>
+      <c r="F149" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
+        <v>318</v>
+      </c>
+      <c r="D150">
+        <v>118.8192</v>
+      </c>
+      <c r="E150">
+        <v>37.378100000000003</v>
+      </c>
+      <c r="F150" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" t="s">
+        <v>187</v>
+      </c>
+      <c r="C151" t="s">
+        <v>188</v>
+      </c>
+      <c r="D151">
+        <v>115.42277</v>
+      </c>
+      <c r="E151">
+        <v>35.248888999999998</v>
+      </c>
+      <c r="F151" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" t="s">
+        <v>188</v>
+      </c>
+      <c r="D152">
+        <v>115.474722</v>
+      </c>
+      <c r="E152">
+        <v>35.237499999999997</v>
+      </c>
+      <c r="F152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" t="s">
+        <v>188</v>
+      </c>
+      <c r="D153">
+        <v>115.455</v>
+      </c>
+      <c r="E153">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F153" s="1">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1670,8 +5239,624 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DF1534-4DB5-4C30-BED1-8E06F87ED8BE}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>117.157</v>
+      </c>
+      <c r="E2">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>117.193</v>
+      </c>
+      <c r="E3">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>117.145</v>
+      </c>
+      <c r="E4">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>117.184</v>
+      </c>
+      <c r="E5">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E6">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>117.202</v>
+      </c>
+      <c r="E7">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>117.1837</v>
+      </c>
+      <c r="E8">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>117.193</v>
+      </c>
+      <c r="E14">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>117.145</v>
+      </c>
+      <c r="E15">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>117.184</v>
+      </c>
+      <c r="E16">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E17">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>117.202</v>
+      </c>
+      <c r="E18">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>117.1837</v>
+      </c>
+      <c r="E19">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E20">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>117.307</v>
+      </c>
+      <c r="E21">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E22">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E23">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>117.401</v>
+      </c>
+      <c r="E24">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>117.764</v>
+      </c>
+      <c r="E25">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>117.151</v>
+      </c>
+      <c r="E26">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A566AA-18E1-4492-97C0-2501DAEB8172}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2129,12 +6314,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAA0FF4-1B59-4E66-9A79-AD041480D736}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="A19:E26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2588,8 +6774,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463143AB-D2F1-4DFC-BFE8-23B102F5F87D}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3048,8 +7235,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8FB034-7678-4AEB-9725-29640D0371F2}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3510,8 +7698,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B46F28-8992-4E4D-B2E3-60DB2129029B}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E2">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.23</v>
+      </c>
+      <c r="E3">
+        <v>40.1952</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00556B5-25B7-43BE-8B64-F9D663C7D41D}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4005,8 +8262,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E71432-076E-4B36-BE65-904D2F994836}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -5160,8 +9418,503 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864904B6-D476-4277-B53D-A8FF2FE697CA}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.315</v>
+      </c>
+      <c r="E2">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.72</v>
+      </c>
+      <c r="E3">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B498C1FE-33C3-4B29-85FE-9D11ED2FA713}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.473</v>
+      </c>
+      <c r="E2">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.361</v>
+      </c>
+      <c r="E3">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D31A5-0DAE-478F-AA71-39D5C2E2C742}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.434</v>
+      </c>
+      <c r="E2">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.434</v>
+      </c>
+      <c r="E3">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D9EA75-18E5-4C89-90BC-FD8077682238}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35975FBF-B5E0-4A2A-9935-8FE26E5628E7}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E2">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E3">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E4">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5">
+        <v>115.5223</v>
+      </c>
+      <c r="E5">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6">
+        <v>118.1662</v>
+      </c>
+      <c r="E6">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E7">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8">
+        <v>118.1853</v>
+      </c>
+      <c r="E8">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E9">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E10">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E11">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>117.401</v>
+      </c>
+      <c r="E12">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9757B7-3051-413A-9A29-A9C9BCAB25CE}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,8 +10133,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF272F95-9143-4F28-A52A-0A21589FFDC0}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5599,4329 +10353,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57616D5-3F8F-402B-8CC8-73EF433870A7}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.764</v>
-      </c>
-      <c r="E2">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>117.157</v>
-      </c>
-      <c r="E3">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E4">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>114.6046</v>
-      </c>
-      <c r="E5">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E6">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>114.4586111</v>
-      </c>
-      <c r="E7">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8">
-        <v>114.5330556</v>
-      </c>
-      <c r="E8">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9">
-        <v>114.5214</v>
-      </c>
-      <c r="E9">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10">
-        <v>114.3541</v>
-      </c>
-      <c r="E10">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>117.685</v>
-      </c>
-      <c r="E11">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>117.6789</v>
-      </c>
-      <c r="E12">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E97726-3B6B-4953-8B8F-8C916D9F84A4}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E2">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3">
-        <v>119.7624</v>
-      </c>
-      <c r="E3">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4">
-        <v>119.6023</v>
-      </c>
-      <c r="E4">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5">
-        <v>119.607</v>
-      </c>
-      <c r="E5">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6">
-        <v>119.5369</v>
-      </c>
-      <c r="E6">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7">
-        <v>114.5129</v>
-      </c>
-      <c r="E7">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E8">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9">
-        <v>114.5035</v>
-      </c>
-      <c r="E9">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10">
-        <v>114.4965</v>
-      </c>
-      <c r="E10">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E11">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0715DF9F-AC33-4DE8-A166-E2729AA867E2}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E2">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3">
-        <v>120.3905</v>
-      </c>
-      <c r="E3">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4">
-        <v>120.3471</v>
-      </c>
-      <c r="E4">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5">
-        <v>120.4134</v>
-      </c>
-      <c r="E5">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6">
-        <v>120.3664</v>
-      </c>
-      <c r="E6">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7">
-        <v>120.2992</v>
-      </c>
-      <c r="E7">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E8">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9">
-        <v>120.1964</v>
-      </c>
-      <c r="E9">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E10">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>117.715</v>
-      </c>
-      <c r="E11">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FACD8-B901-46E8-BFEF-E582CEED6BDD}">
-  <dimension ref="A1:F153"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F153"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>117.151</v>
-      </c>
-      <c r="E14">
-        <v>39.097000000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>117.193</v>
-      </c>
-      <c r="E15">
-        <v>39.173000000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>117.145</v>
-      </c>
-      <c r="E16">
-        <v>39.165399999999998</v>
-      </c>
-      <c r="F16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>117.184</v>
-      </c>
-      <c r="E17">
-        <v>39.1205</v>
-      </c>
-      <c r="F17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E18">
-        <v>39.108199999999997</v>
-      </c>
-      <c r="F18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>117.202</v>
-      </c>
-      <c r="E19">
-        <v>39.092700000000001</v>
-      </c>
-      <c r="F19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>117.1837</v>
-      </c>
-      <c r="E20">
-        <v>39.213299999999997</v>
-      </c>
-      <c r="F20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E21">
-        <v>39.133699999999997</v>
-      </c>
-      <c r="F21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>117.307</v>
-      </c>
-      <c r="E22">
-        <v>39.087699999999998</v>
-      </c>
-      <c r="F22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E23">
-        <v>39.034300000000002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.839399999999998</v>
-      </c>
-      <c r="F24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.401</v>
-      </c>
-      <c r="E25">
-        <v>39.124000000000002</v>
-      </c>
-      <c r="F25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.764</v>
-      </c>
-      <c r="E26">
-        <v>39.158700000000003</v>
-      </c>
-      <c r="F26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>117.157</v>
-      </c>
-      <c r="E27">
-        <v>38.919400000000003</v>
-      </c>
-      <c r="F27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E28">
-        <v>38.051299999999998</v>
-      </c>
-      <c r="F28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29">
-        <v>114.6046</v>
-      </c>
-      <c r="E29">
-        <v>38.0398</v>
-      </c>
-      <c r="F29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E30">
-        <v>38.139800000000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31">
-        <v>114.4586111</v>
-      </c>
-      <c r="E31">
-        <v>38.005833330000002</v>
-      </c>
-      <c r="F31" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32">
-        <v>114.5330556</v>
-      </c>
-      <c r="E32">
-        <v>38.017777780000003</v>
-      </c>
-      <c r="F32" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33">
-        <v>114.5214</v>
-      </c>
-      <c r="E33">
-        <v>38.052399999999999</v>
-      </c>
-      <c r="F33" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34">
-        <v>114.3541</v>
-      </c>
-      <c r="E34">
-        <v>37.909700000000001</v>
-      </c>
-      <c r="F34" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35">
-        <v>118.1662</v>
-      </c>
-      <c r="E35">
-        <v>39.630800000000001</v>
-      </c>
-      <c r="F35" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E36">
-        <v>39.643000000000001</v>
-      </c>
-      <c r="F36" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37">
-        <v>118.1853</v>
-      </c>
-      <c r="E37">
-        <v>39.640700000000002</v>
-      </c>
-      <c r="F37" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E38">
-        <v>39.667900000000003</v>
-      </c>
-      <c r="F38" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E39">
-        <v>39.657820000000001</v>
-      </c>
-      <c r="F39" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E40">
-        <v>39.6295</v>
-      </c>
-      <c r="F40" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E41">
-        <v>39.828299999999999</v>
-      </c>
-      <c r="F41" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C42" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42">
-        <v>119.7624</v>
-      </c>
-      <c r="E42">
-        <v>40.018099999999997</v>
-      </c>
-      <c r="F42" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43">
-        <v>119.6023</v>
-      </c>
-      <c r="E43">
-        <v>39.956699999999998</v>
-      </c>
-      <c r="F43" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44">
-        <v>119.607</v>
-      </c>
-      <c r="E44">
-        <v>39.9358</v>
-      </c>
-      <c r="F44" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45">
-        <v>119.5369</v>
-      </c>
-      <c r="E45">
-        <v>39.941899999999997</v>
-      </c>
-      <c r="F45" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46">
-        <v>114.5129</v>
-      </c>
-      <c r="E46">
-        <v>36.617629999999998</v>
-      </c>
-      <c r="F46" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E47">
-        <v>36.616399999999999</v>
-      </c>
-      <c r="F47" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48">
-        <v>114.5035</v>
-      </c>
-      <c r="E48">
-        <v>36.577599999999997</v>
-      </c>
-      <c r="F48" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49">
-        <v>114.4965</v>
-      </c>
-      <c r="E49">
-        <v>36.619810000000001</v>
-      </c>
-      <c r="F49" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E50">
-        <v>38.863199999999999</v>
-      </c>
-      <c r="F50" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51">
-        <v>115.5223</v>
-      </c>
-      <c r="E51">
-        <v>38.895699999999998</v>
-      </c>
-      <c r="F51" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52">
-        <v>115.4713</v>
-      </c>
-      <c r="E52">
-        <v>38.910800000000002</v>
-      </c>
-      <c r="F52" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" t="s">
-        <v>234</v>
-      </c>
-      <c r="C53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53">
-        <v>115.46120000000001</v>
-      </c>
-      <c r="E53">
-        <v>38.8416</v>
-      </c>
-      <c r="F53" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54">
-        <v>115.44199999999999</v>
-      </c>
-      <c r="E54">
-        <v>38.875599999999999</v>
-      </c>
-      <c r="F54" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55">
-        <v>115.5214</v>
-      </c>
-      <c r="E55">
-        <v>38.870699999999999</v>
-      </c>
-      <c r="F55" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>114.8985</v>
-      </c>
-      <c r="E56">
-        <v>40.8367</v>
-      </c>
-      <c r="F56" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>114.892</v>
-      </c>
-      <c r="E57">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F57" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>114.8814</v>
-      </c>
-      <c r="E58">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F58" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>114.9032</v>
-      </c>
-      <c r="E59">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F59" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>114.904</v>
-      </c>
-      <c r="E60">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F60" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E61">
-        <v>40.9161</v>
-      </c>
-      <c r="F61" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62">
-        <v>117.9525</v>
-      </c>
-      <c r="E62">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F62" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E63">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F63" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64">
-        <v>117.8184</v>
-      </c>
-      <c r="E64">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F64" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65">
-        <v>117.9384</v>
-      </c>
-      <c r="E65">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F65" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>238</v>
-      </c>
-      <c r="B66" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66">
-        <v>116.68380000000001</v>
-      </c>
-      <c r="E66">
-        <v>39.517800000000001</v>
-      </c>
-      <c r="F66" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67">
-        <v>116.77290000000001</v>
-      </c>
-      <c r="E67">
-        <v>39.5747</v>
-      </c>
-      <c r="F67" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68">
-        <v>116.715</v>
-      </c>
-      <c r="E68">
-        <v>39.557099999999998</v>
-      </c>
-      <c r="F68" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69">
-        <v>116.74639999999999</v>
-      </c>
-      <c r="E69">
-        <v>39.534300000000002</v>
-      </c>
-      <c r="F69" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70">
-        <v>116.8854</v>
-      </c>
-      <c r="E70">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F70" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71">
-        <v>116.8584</v>
-      </c>
-      <c r="E71">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F71" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>246</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72">
-        <v>116.87090000000001</v>
-      </c>
-      <c r="E72">
-        <v>38.322800000000001</v>
-      </c>
-      <c r="F72" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>247</v>
-      </c>
-      <c r="B73" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" t="s">
-        <v>249</v>
-      </c>
-      <c r="D73">
-        <v>115.6951</v>
-      </c>
-      <c r="E73">
-        <v>37.7575</v>
-      </c>
-      <c r="F73" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>250</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>249</v>
-      </c>
-      <c r="D74">
-        <v>115.6426</v>
-      </c>
-      <c r="E74">
-        <v>37.737900000000003</v>
-      </c>
-      <c r="F74" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75">
-        <v>115.6906</v>
-      </c>
-      <c r="E75">
-        <v>37.738999999999997</v>
-      </c>
-      <c r="F75" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76">
-        <v>114.4821</v>
-      </c>
-      <c r="E76">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F76" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77">
-        <v>114.5261</v>
-      </c>
-      <c r="E77">
-        <v>37.0533</v>
-      </c>
-      <c r="F77" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78">
-        <v>114.5331</v>
-      </c>
-      <c r="E78">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F78" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79">
-        <v>114.4854</v>
-      </c>
-      <c r="E79">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F79" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80">
-        <v>116.988</v>
-      </c>
-      <c r="E80">
-        <v>36.611400000000003</v>
-      </c>
-      <c r="F80" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81">
-        <v>116.93</v>
-      </c>
-      <c r="E81">
-        <v>36.67</v>
-      </c>
-      <c r="F81" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82">
-        <v>117.114</v>
-      </c>
-      <c r="E82">
-        <v>36.673900000000003</v>
-      </c>
-      <c r="F82" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" t="s">
-        <v>154</v>
-      </c>
-      <c r="D83">
-        <v>116.989</v>
-      </c>
-      <c r="E83">
-        <v>36.687199999999997</v>
-      </c>
-      <c r="F83" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84">
-        <v>117.0684</v>
-      </c>
-      <c r="E84">
-        <v>36.686799999999998</v>
-      </c>
-      <c r="F84" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85">
-        <v>116.943</v>
-      </c>
-      <c r="E85">
-        <v>36.648899999999998</v>
-      </c>
-      <c r="F85" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>154</v>
-      </c>
-      <c r="D86">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E86">
-        <v>36.662199999999999</v>
-      </c>
-      <c r="F86" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E87">
-        <v>36.5336</v>
-      </c>
-      <c r="F87" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E88">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="F88" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89">
-        <v>120.3905</v>
-      </c>
-      <c r="E89">
-        <v>36.185099999999998</v>
-      </c>
-      <c r="F89" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90">
-        <v>120.3471</v>
-      </c>
-      <c r="E90">
-        <v>36.069899999999997</v>
-      </c>
-      <c r="F90" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91">
-        <v>120.4134</v>
-      </c>
-      <c r="E91">
-        <v>36.065399999999997</v>
-      </c>
-      <c r="F91" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>176</v>
-      </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92">
-        <v>120.3664</v>
-      </c>
-      <c r="E92">
-        <v>36.103200000000001</v>
-      </c>
-      <c r="F92" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93">
-        <v>120.2992</v>
-      </c>
-      <c r="E93">
-        <v>36.054299999999998</v>
-      </c>
-      <c r="F93" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>180</v>
-      </c>
-      <c r="B94" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E94">
-        <v>36.085099999999997</v>
-      </c>
-      <c r="F94" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>182</v>
-      </c>
-      <c r="B95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95">
-        <v>120.1964</v>
-      </c>
-      <c r="E95">
-        <v>36.308300000000003</v>
-      </c>
-      <c r="F95" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>184</v>
-      </c>
-      <c r="B96" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E96">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="F96" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97">
-        <v>117.685</v>
-      </c>
-      <c r="E97">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="F97" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98">
-        <v>117.6789</v>
-      </c>
-      <c r="E98">
-        <v>36.228900000000003</v>
-      </c>
-      <c r="F98" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99">
-        <v>117.715</v>
-      </c>
-      <c r="E99">
-        <v>36.208100000000002</v>
-      </c>
-      <c r="F99" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E100">
-        <v>35.057299999999998</v>
-      </c>
-      <c r="F100" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E101">
-        <v>35.062199999999997</v>
-      </c>
-      <c r="F101" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102">
-        <v>118.2764</v>
-      </c>
-      <c r="E102">
-        <v>34.981699999999996</v>
-      </c>
-      <c r="F102" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103">
-        <v>118.4023</v>
-      </c>
-      <c r="E103">
-        <v>35.089599999999997</v>
-      </c>
-      <c r="F103" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>252</v>
-      </c>
-      <c r="B104" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" t="s">
-        <v>254</v>
-      </c>
-      <c r="D104">
-        <v>116.3061</v>
-      </c>
-      <c r="E104">
-        <v>37.4664</v>
-      </c>
-      <c r="F104" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>255</v>
-      </c>
-      <c r="B105" t="s">
-        <v>256</v>
-      </c>
-      <c r="C105" t="s">
-        <v>254</v>
-      </c>
-      <c r="D105">
-        <v>116.27290000000001</v>
-      </c>
-      <c r="E105">
-        <v>37.450400000000002</v>
-      </c>
-      <c r="F105" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>257</v>
-      </c>
-      <c r="B106" t="s">
-        <v>258</v>
-      </c>
-      <c r="C106" t="s">
-        <v>254</v>
-      </c>
-      <c r="D106">
-        <v>116.3189</v>
-      </c>
-      <c r="E106">
-        <v>37.448900000000002</v>
-      </c>
-      <c r="F106" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>259</v>
-      </c>
-      <c r="B107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" t="s">
-        <v>261</v>
-      </c>
-      <c r="D107">
-        <v>115.98480000000001</v>
-      </c>
-      <c r="E107">
-        <v>36.437199999999997</v>
-      </c>
-      <c r="F107" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" t="s">
-        <v>263</v>
-      </c>
-      <c r="C108" t="s">
-        <v>261</v>
-      </c>
-      <c r="D108">
-        <v>115.99679999999999</v>
-      </c>
-      <c r="E108">
-        <v>36.456800000000001</v>
-      </c>
-      <c r="F108" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>264</v>
-      </c>
-      <c r="B109" t="s">
-        <v>265</v>
-      </c>
-      <c r="C109" t="s">
-        <v>261</v>
-      </c>
-      <c r="D109">
-        <v>115.98350000000001</v>
-      </c>
-      <c r="E109">
-        <v>36.479599999999998</v>
-      </c>
-      <c r="F109" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>266</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>267</v>
-      </c>
-      <c r="D110">
-        <v>118.00620000000001</v>
-      </c>
-      <c r="E110">
-        <v>37.380299999999998</v>
-      </c>
-      <c r="F110" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>268</v>
-      </c>
-      <c r="B111" t="s">
-        <v>269</v>
-      </c>
-      <c r="C111" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111">
-        <v>118.0018</v>
-      </c>
-      <c r="E111">
-        <v>37.361699999999999</v>
-      </c>
-      <c r="F111" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>270</v>
-      </c>
-      <c r="B112" t="s">
-        <v>271</v>
-      </c>
-      <c r="C112" t="s">
-        <v>267</v>
-      </c>
-      <c r="D112">
-        <v>117.9776</v>
-      </c>
-      <c r="E112">
-        <v>37.393000000000001</v>
-      </c>
-      <c r="F112" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>272</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E113">
-        <v>36.808799999999998</v>
-      </c>
-      <c r="F113" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>273</v>
-      </c>
-      <c r="B114" t="s">
-        <v>274</v>
-      </c>
-      <c r="C114" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114">
-        <v>118.0448</v>
-      </c>
-      <c r="E114">
-        <v>36.838000000000001</v>
-      </c>
-      <c r="F114" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115">
-        <v>117.8477</v>
-      </c>
-      <c r="E115">
-        <v>36.497</v>
-      </c>
-      <c r="F115" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>275</v>
-      </c>
-      <c r="B116" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E116">
-        <v>36.637700000000002</v>
-      </c>
-      <c r="F116" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>277</v>
-      </c>
-      <c r="B117" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117">
-        <v>118.3092</v>
-      </c>
-      <c r="E117">
-        <v>36.819800000000001</v>
-      </c>
-      <c r="F117" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>279</v>
-      </c>
-      <c r="B118" t="s">
-        <v>280</v>
-      </c>
-      <c r="C118" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E118">
-        <v>36.804099999999998</v>
-      </c>
-      <c r="F118" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>281</v>
-      </c>
-      <c r="B119" t="s">
-        <v>282</v>
-      </c>
-      <c r="C119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119">
-        <v>117.5564</v>
-      </c>
-      <c r="E119">
-        <v>34.863999999999997</v>
-      </c>
-      <c r="F119" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" t="s">
-        <v>284</v>
-      </c>
-      <c r="C120" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120">
-        <v>117.2852</v>
-      </c>
-      <c r="E120">
-        <v>34.783700000000003</v>
-      </c>
-      <c r="F120" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>285</v>
-      </c>
-      <c r="B121" t="s">
-        <v>286</v>
-      </c>
-      <c r="C121" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121">
-        <v>117.5852</v>
-      </c>
-      <c r="E121">
-        <v>34.774500000000003</v>
-      </c>
-      <c r="F121" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>287</v>
-      </c>
-      <c r="B122" t="s">
-        <v>288</v>
-      </c>
-      <c r="C122" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122">
-        <v>117.732</v>
-      </c>
-      <c r="E122">
-        <v>34.566699999999997</v>
-      </c>
-      <c r="F122" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E123">
-        <v>35.099200000000003</v>
-      </c>
-      <c r="F123" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>289</v>
-      </c>
-      <c r="B124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s">
-        <v>290</v>
-      </c>
-      <c r="D124">
-        <v>121.2514</v>
-      </c>
-      <c r="E124">
-        <v>37.563899999999997</v>
-      </c>
-      <c r="F124" s="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>291</v>
-      </c>
-      <c r="B125" t="s">
-        <v>292</v>
-      </c>
-      <c r="C125" t="s">
-        <v>290</v>
-      </c>
-      <c r="D125">
-        <v>121.3719</v>
-      </c>
-      <c r="E125">
-        <v>37.543300000000002</v>
-      </c>
-      <c r="F125" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>293</v>
-      </c>
-      <c r="B126" t="s">
-        <v>294</v>
-      </c>
-      <c r="C126" t="s">
-        <v>290</v>
-      </c>
-      <c r="D126">
-        <v>121.3181</v>
-      </c>
-      <c r="E126">
-        <v>37.543599999999998</v>
-      </c>
-      <c r="F126" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>295</v>
-      </c>
-      <c r="B127" t="s">
-        <v>296</v>
-      </c>
-      <c r="C127" t="s">
-        <v>290</v>
-      </c>
-      <c r="D127">
-        <v>121.4478</v>
-      </c>
-      <c r="E127">
-        <v>37.482199999999999</v>
-      </c>
-      <c r="F127" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>297</v>
-      </c>
-      <c r="B128" t="s">
-        <v>298</v>
-      </c>
-      <c r="C128" t="s">
-        <v>290</v>
-      </c>
-      <c r="D128">
-        <v>121.2611</v>
-      </c>
-      <c r="E128">
-        <v>37.496699999999997</v>
-      </c>
-      <c r="F128" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>299</v>
-      </c>
-      <c r="B129" t="s">
-        <v>300</v>
-      </c>
-      <c r="C129" t="s">
-        <v>290</v>
-      </c>
-      <c r="D129">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E129">
-        <v>37.3872</v>
-      </c>
-      <c r="F129" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" t="s">
-        <v>37</v>
-      </c>
-      <c r="C130" t="s">
-        <v>38</v>
-      </c>
-      <c r="D130">
-        <v>119.12</v>
-      </c>
-      <c r="E130">
-        <v>36.701900000000002</v>
-      </c>
-      <c r="F130" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>39</v>
-      </c>
-      <c r="B131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" t="s">
-        <v>38</v>
-      </c>
-      <c r="D131">
-        <v>119.0919</v>
-      </c>
-      <c r="E131">
-        <v>36.730600000000003</v>
-      </c>
-      <c r="F131" s="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
-        <v>38</v>
-      </c>
-      <c r="D132">
-        <v>119.1425</v>
-      </c>
-      <c r="E132">
-        <v>36.700800000000001</v>
-      </c>
-      <c r="F132" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>42</v>
-      </c>
-      <c r="B133" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133">
-        <v>119.1614</v>
-      </c>
-      <c r="E133">
-        <v>36.657200000000003</v>
-      </c>
-      <c r="F133" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134">
-        <v>119.1939</v>
-      </c>
-      <c r="E134">
-        <v>36.773099999999999</v>
-      </c>
-      <c r="F134" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>301</v>
-      </c>
-      <c r="B135" t="s">
-        <v>302</v>
-      </c>
-      <c r="C135" t="s">
-        <v>303</v>
-      </c>
-      <c r="D135">
-        <v>116.6305</v>
-      </c>
-      <c r="E135">
-        <v>35.427999999999997</v>
-      </c>
-      <c r="F135" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>304</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>303</v>
-      </c>
-      <c r="D136">
-        <v>116.5856</v>
-      </c>
-      <c r="E136">
-        <v>35.414400000000001</v>
-      </c>
-      <c r="F136" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>305</v>
-      </c>
-      <c r="B137" t="s">
-        <v>306</v>
-      </c>
-      <c r="C137" t="s">
-        <v>303</v>
-      </c>
-      <c r="D137">
-        <v>116.55459999999999</v>
-      </c>
-      <c r="E137">
-        <v>35.4039</v>
-      </c>
-      <c r="F137" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>307</v>
-      </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s">
-        <v>308</v>
-      </c>
-      <c r="D138">
-        <v>117.14360000000001</v>
-      </c>
-      <c r="E138">
-        <v>36.194200000000002</v>
-      </c>
-      <c r="F138" s="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>309</v>
-      </c>
-      <c r="B139" t="s">
-        <v>310</v>
-      </c>
-      <c r="C139" t="s">
-        <v>308</v>
-      </c>
-      <c r="D139">
-        <v>117.0881</v>
-      </c>
-      <c r="E139">
-        <v>36.194200000000002</v>
-      </c>
-      <c r="F139" s="1">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>311</v>
-      </c>
-      <c r="B140" t="s">
-        <v>312</v>
-      </c>
-      <c r="C140" t="s">
-        <v>308</v>
-      </c>
-      <c r="D140">
-        <v>117.10809999999999</v>
-      </c>
-      <c r="E140">
-        <v>36.175800000000002</v>
-      </c>
-      <c r="F140" s="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>46</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>47</v>
-      </c>
-      <c r="D141">
-        <v>119.4641</v>
-      </c>
-      <c r="E141">
-        <v>35.4178</v>
-      </c>
-      <c r="F141" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" t="s">
-        <v>49</v>
-      </c>
-      <c r="C142" t="s">
-        <v>47</v>
-      </c>
-      <c r="D142">
-        <v>119.5198</v>
-      </c>
-      <c r="E142">
-        <v>35.423400000000001</v>
-      </c>
-      <c r="F142" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>50</v>
-      </c>
-      <c r="B143" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143">
-        <v>119.54</v>
-      </c>
-      <c r="E143">
-        <v>35.3962</v>
-      </c>
-      <c r="F143" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>52</v>
-      </c>
-      <c r="B144" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144">
-        <v>122.1206</v>
-      </c>
-      <c r="E144">
-        <v>37.429400000000001</v>
-      </c>
-      <c r="F144" s="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>313</v>
-      </c>
-      <c r="B145" t="s">
-        <v>314</v>
-      </c>
-      <c r="C145" t="s">
-        <v>54</v>
-      </c>
-      <c r="D145">
-        <v>122.0508</v>
-      </c>
-      <c r="E145">
-        <v>37.532499999999999</v>
-      </c>
-      <c r="F145" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>315</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146">
-        <v>122.1067</v>
-      </c>
-      <c r="E146">
-        <v>37.507199999999997</v>
-      </c>
-      <c r="F146" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>316</v>
-      </c>
-      <c r="B147" t="s">
-        <v>317</v>
-      </c>
-      <c r="C147" t="s">
-        <v>318</v>
-      </c>
-      <c r="D147">
-        <v>118.50190000000001</v>
-      </c>
-      <c r="E147">
-        <v>37.465800000000002</v>
-      </c>
-      <c r="F147" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>319</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>318</v>
-      </c>
-      <c r="D148">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E148">
-        <v>37.431399999999996</v>
-      </c>
-      <c r="F148" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>320</v>
-      </c>
-      <c r="B149" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" t="s">
-        <v>318</v>
-      </c>
-      <c r="D149">
-        <v>118.5857</v>
-      </c>
-      <c r="E149">
-        <v>37.444200000000002</v>
-      </c>
-      <c r="F149" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>322</v>
-      </c>
-      <c r="B150" t="s">
-        <v>323</v>
-      </c>
-      <c r="C150" t="s">
-        <v>318</v>
-      </c>
-      <c r="D150">
-        <v>118.8192</v>
-      </c>
-      <c r="E150">
-        <v>37.378100000000003</v>
-      </c>
-      <c r="F150" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>186</v>
-      </c>
-      <c r="B151" t="s">
-        <v>187</v>
-      </c>
-      <c r="C151" t="s">
-        <v>188</v>
-      </c>
-      <c r="D151">
-        <v>115.42277</v>
-      </c>
-      <c r="E151">
-        <v>35.248888999999998</v>
-      </c>
-      <c r="F151" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>189</v>
-      </c>
-      <c r="B152" t="s">
-        <v>190</v>
-      </c>
-      <c r="C152" t="s">
-        <v>188</v>
-      </c>
-      <c r="D152">
-        <v>115.474722</v>
-      </c>
-      <c r="E152">
-        <v>35.237499999999997</v>
-      </c>
-      <c r="F152" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>191</v>
-      </c>
-      <c r="B153" t="s">
-        <v>192</v>
-      </c>
-      <c r="C153" t="s">
-        <v>188</v>
-      </c>
-      <c r="D153">
-        <v>115.455</v>
-      </c>
-      <c r="E153">
-        <v>35.270000000000003</v>
-      </c>
-      <c r="F153" s="1">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DF1534-4DB5-4C30-BED1-8E06F87ED8BE}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>117.157</v>
-      </c>
-      <c r="E2">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>117.193</v>
-      </c>
-      <c r="E3">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>117.145</v>
-      </c>
-      <c r="E4">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>117.184</v>
-      </c>
-      <c r="E5">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E6">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>117.202</v>
-      </c>
-      <c r="E7">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>117.1837</v>
-      </c>
-      <c r="E8">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A2:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>336</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>117.193</v>
-      </c>
-      <c r="E14">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>117.145</v>
-      </c>
-      <c r="E15">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>117.184</v>
-      </c>
-      <c r="E16">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E17">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>117.202</v>
-      </c>
-      <c r="E18">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>117.1837</v>
-      </c>
-      <c r="E19">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E20">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>343</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>117.307</v>
-      </c>
-      <c r="E21">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E22">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E23">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>346</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>117.401</v>
-      </c>
-      <c r="E24">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>117.764</v>
-      </c>
-      <c r="E25">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>117.151</v>
-      </c>
-      <c r="E26">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/坐标/站点列表-2018.11.08起_152.xlsx
+++ b/坐标/站点列表-2018.11.08起_152.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22718"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E24AB-1E9D-4740-9CBB-C48D6267106B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C030B8F-0D81-42C8-956E-87AE5F2B2290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="478" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="北京6" sheetId="27" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="样例5" sheetId="5" r:id="rId19"/>
     <sheet name="样例6" sheetId="7" r:id="rId20"/>
     <sheet name="缺失152-86" sheetId="10" r:id="rId21"/>
+    <sheet name="北京" sheetId="28" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">样例2!$D$1:$E$15</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="350">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1460,7 +1461,7 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -2164,7 +2165,7 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F153"/>
+      <selection activeCell="F2" sqref="A1:F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5397,8 +5398,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E26"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9418,6 +9419,702 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3373EC-E81C-465A-B6A2-61D3D1FC478B}">
+  <dimension ref="A1:F153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864904B6-D476-4277-B53D-A8FF2FE697CA}">
   <sheetPr codeName="Sheet19"/>
@@ -9696,7 +10393,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
